--- a/商品上架单.xlsx
+++ b/商品上架单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LinQin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="353">
   <si>
     <t>产品</t>
     <rPh sb="0" eb="1">
@@ -2011,6 +2011,10 @@
   </si>
   <si>
     <t>750ml*2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿达</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2621,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5485,6 +5489,11 @@
         <v>50.540000000000013</v>
       </c>
     </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="I44:I45"/>

--- a/商品上架单.xlsx
+++ b/商品上架单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="354">
   <si>
     <t>产品</t>
     <rPh sb="0" eb="1">
@@ -2015,6 +2015,10 @@
   </si>
   <si>
     <t>阿达</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊大大</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2628,7 +2632,7 @@
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5489,6 +5493,11 @@
         <v>50.540000000000013</v>
       </c>
     </row>
+    <row r="182" spans="3:3">
+      <c r="C182" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
     <row r="185" spans="3:3">
       <c r="C185" s="1" t="s">
         <v>352</v>

--- a/商品上架单.xlsx
+++ b/商品上架单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="9900" tabRatio="500"/>
+    <workbookView windowWidth="23280" windowHeight="10350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
-  <si>
-    <t>供货商</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
   <si>
     <t>产品编号</t>
   </si>
@@ -1686,10 +1683,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -1801,6 +1798,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1808,7 +1850,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1829,15 +1925,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1851,101 +1941,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1991,7 +1988,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2000,7 +1997,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,49 +2135,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,115 +2177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,8 +2200,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2220,10 +2223,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2262,15 +2263,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2291,155 +2283,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2447,30 +2450,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2487,6 +2502,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2833,8 +2851,8 @@
   <sheetPr/>
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2851,1252 +2869,1458 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2">
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4">
+        <v>95</v>
+      </c>
+      <c r="F5" s="4">
+        <v>120</v>
+      </c>
+      <c r="G5" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="2" t="s">
+      <c r="H5" s="4">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2">
-        <v>95</v>
-      </c>
-      <c r="F5" s="2">
-        <v>120</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>28</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>42</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <f t="shared" ref="H6:I78" si="0">(F6*0.93-E6)*0.95</f>
         <v>10.507</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="2" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4">
+        <v>70</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>150</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>250</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>78.375</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="2" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>150</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>290</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2">
+      <c r="G9" s="6"/>
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>113.715</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="2" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>60</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>120</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2">
+      <c r="G10" s="6"/>
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>49.02</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>50</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>120</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2">
+      <c r="G11" s="8"/>
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="2" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7">
         <v>50</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>120</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2">
+      <c r="G12" s="8"/>
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="2" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="9">
+        <v>190</v>
+      </c>
+      <c r="F13" s="4">
+        <v>350</v>
+      </c>
+      <c r="G13" s="4">
+        <v>140</v>
+      </c>
+      <c r="H13" s="4">
+        <v>140</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7">
-        <v>190</v>
-      </c>
-      <c r="F13" s="2">
-        <v>350</v>
-      </c>
-      <c r="G13" s="2">
-        <v>140</v>
-      </c>
-      <c r="H13" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <v>320</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>620</v>
       </c>
-      <c r="H14" s="2">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>243.77</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>220</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>420</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="2">
+      <c r="G15" s="8"/>
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>162.07</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="2" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>180</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>290</v>
       </c>
-      <c r="H16" s="2">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>85.215</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>110</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>220</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="2">
+      <c r="G17" s="8"/>
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
         <v>89.87</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="2" t="s">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>380</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>880</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2">
+      <c r="G18" s="8"/>
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
         <v>416.48</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="2" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7">
         <v>310</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>680</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="2">
+      <c r="G19" s="8"/>
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>306.28</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="2" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7">
         <v>220</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>480</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2">
+      <c r="G20" s="8"/>
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>215.08</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="2" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="7">
         <v>160</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>320</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="2">
+      <c r="G21" s="8"/>
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
         <v>130.72</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9">
+        <v>360</v>
+      </c>
+      <c r="F22" s="4">
+        <v>720</v>
+      </c>
+      <c r="G22" s="4">
+        <v>320</v>
+      </c>
+      <c r="H22" s="4">
+        <v>320</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="7">
-        <v>360</v>
-      </c>
-      <c r="F22" s="2">
-        <v>720</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="C23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="7">
+        <v>140</v>
+      </c>
+      <c r="F23" s="8">
         <v>320</v>
       </c>
-      <c r="H22" s="2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="5">
-        <v>140</v>
-      </c>
-      <c r="F23" s="6">
-        <v>320</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="2">
+      <c r="G23" s="8"/>
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>149.72</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="2" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="7">
         <v>280</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>420</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="2">
+      <c r="G24" s="8"/>
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>105.07</v>
       </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="2">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="2">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="2">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="4">
+        <v>180</v>
+      </c>
+      <c r="F28" s="4">
+        <v>360</v>
+      </c>
+      <c r="G28" s="4">
+        <v>162</v>
+      </c>
+      <c r="H28" s="4">
+        <v>162</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="2">
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="4">
         <v>180</v>
       </c>
-      <c r="F28" s="2">
-        <v>360</v>
-      </c>
-      <c r="G28" s="2">
-        <v>162</v>
-      </c>
-      <c r="H28" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="F29" s="4">
+        <v>464</v>
+      </c>
+      <c r="G29" s="4">
+        <v>250</v>
+      </c>
+      <c r="H29" s="4">
+        <v>250</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="4">
+        <v>168</v>
+      </c>
+      <c r="F30" s="4">
+        <v>400</v>
+      </c>
+      <c r="G30" s="4">
+        <v>224</v>
+      </c>
+      <c r="H30" s="4">
+        <v>224</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="4">
+        <v>98</v>
+      </c>
+      <c r="F31" s="4">
+        <v>156.8</v>
+      </c>
+      <c r="G31" s="4">
+        <v>55</v>
+      </c>
+      <c r="H31" s="4">
+        <v>55</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4">
+        <v>134</v>
+      </c>
+      <c r="F32" s="4">
+        <v>222</v>
+      </c>
+      <c r="G32" s="4">
+        <v>82</v>
+      </c>
+      <c r="H32" s="4">
+        <v>82</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="4">
+        <v>84</v>
+      </c>
+      <c r="F33" s="4">
+        <v>135</v>
+      </c>
+      <c r="G33" s="4">
+        <v>48</v>
+      </c>
+      <c r="H33" s="4">
+        <v>48</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="4">
+        <v>96</v>
+      </c>
+      <c r="F34" s="4">
+        <v>280</v>
+      </c>
+      <c r="G34" s="4">
+        <v>170</v>
+      </c>
+      <c r="H34" s="4">
+        <v>170</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="4">
+        <v>68</v>
+      </c>
+      <c r="F35" s="4">
+        <v>209</v>
+      </c>
+      <c r="G35" s="4">
+        <v>134</v>
+      </c>
+      <c r="H35" s="4">
+        <v>134</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="4">
+        <v>118</v>
+      </c>
+      <c r="F36" s="4">
+        <v>347</v>
+      </c>
+      <c r="G36" s="4">
+        <v>215</v>
+      </c>
+      <c r="H36" s="4">
+        <v>215</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4"/>
+      <c r="B37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="8">
         <v>78</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="2">
-        <v>180</v>
-      </c>
-      <c r="F29" s="2">
-        <v>464</v>
-      </c>
-      <c r="G29" s="2">
-        <v>250</v>
-      </c>
-      <c r="H29" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="2">
-        <v>168</v>
-      </c>
-      <c r="F30" s="2">
-        <v>400</v>
-      </c>
-      <c r="G30" s="2">
-        <v>224</v>
-      </c>
-      <c r="H30" s="2">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="2">
-        <v>98</v>
-      </c>
-      <c r="F31" s="2">
-        <v>156.8</v>
-      </c>
-      <c r="G31" s="2">
-        <v>55</v>
-      </c>
-      <c r="H31" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="2">
-        <v>134</v>
-      </c>
-      <c r="F32" s="2">
-        <v>222</v>
-      </c>
-      <c r="G32" s="2">
-        <v>82</v>
-      </c>
-      <c r="H32" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="2">
-        <v>84</v>
-      </c>
-      <c r="F33" s="2">
-        <v>135</v>
-      </c>
-      <c r="G33" s="2">
-        <v>48</v>
-      </c>
-      <c r="H33" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="F37" s="8">
+        <v>228</v>
+      </c>
+      <c r="G37" s="4">
+        <v>142</v>
+      </c>
+      <c r="H37" s="4">
+        <v>142</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="2">
-        <v>96</v>
-      </c>
-      <c r="F34" s="2">
-        <v>280</v>
-      </c>
-      <c r="G34" s="2">
-        <v>170</v>
-      </c>
-      <c r="H34" s="2">
-        <v>170</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="2">
-        <v>68</v>
-      </c>
-      <c r="F35" s="2">
-        <v>209</v>
-      </c>
-      <c r="G35" s="2">
-        <v>134</v>
-      </c>
-      <c r="H35" s="2">
-        <v>134</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="2">
-        <v>118</v>
-      </c>
-      <c r="F36" s="2">
-        <v>347</v>
-      </c>
-      <c r="G36" s="2">
-        <v>215</v>
-      </c>
-      <c r="H36" s="2">
-        <v>215</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="6">
-        <v>78</v>
-      </c>
-      <c r="F37" s="6">
-        <v>228</v>
-      </c>
-      <c r="G37" s="2">
-        <v>142</v>
-      </c>
-      <c r="H37" s="2">
-        <v>142</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="J38" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="8:8">
-      <c r="H39" s="2">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="F40" s="4">
+        <v>111</v>
+      </c>
+      <c r="G40" s="4">
+        <v>38</v>
+      </c>
+      <c r="H40" s="4">
+        <v>38</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="2">
-        <v>69.8</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="C41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="4">
+        <v>67</v>
+      </c>
+      <c r="F41" s="4">
+        <v>107</v>
+      </c>
+      <c r="G41" s="4">
+        <v>38</v>
+      </c>
+      <c r="H41" s="4">
+        <v>38</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="2">
-        <v>38</v>
-      </c>
-      <c r="H40" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="2">
-        <v>67</v>
-      </c>
-      <c r="F41" s="2">
-        <v>107</v>
-      </c>
-      <c r="G41" s="2">
-        <v>38</v>
-      </c>
-      <c r="H41" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="4">
+        <v>100</v>
+      </c>
+      <c r="F42" s="4">
+        <v>160</v>
+      </c>
+      <c r="G42" s="4">
+        <v>57</v>
+      </c>
+      <c r="H42" s="4">
+        <v>57</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="2">
+      <c r="C43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="4">
+        <v>140</v>
+      </c>
+      <c r="F43" s="4">
+        <v>180</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <v>27</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="4">
+        <v>160</v>
+      </c>
+      <c r="F44" s="4">
+        <v>240</v>
+      </c>
+      <c r="G44" s="11">
+        <v>150</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="4">
+        <v>160</v>
+      </c>
+      <c r="F45" s="4">
+        <v>240</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="4">
+        <v>80</v>
+      </c>
+      <c r="F46" s="4">
         <v>100</v>
       </c>
-      <c r="F42" s="2">
-        <v>160</v>
-      </c>
-      <c r="G42" s="2">
-        <v>57</v>
-      </c>
-      <c r="H42" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="2">
-        <v>140</v>
-      </c>
-      <c r="F43" s="2">
-        <v>180</v>
-      </c>
-      <c r="H43" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="2">
-        <v>160</v>
-      </c>
-      <c r="F44" s="2">
-        <v>240</v>
-      </c>
-      <c r="G44" s="9">
-        <v>150</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="G46" s="4">
+        <v>18</v>
+      </c>
+      <c r="H46" s="4">
+        <v>18</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="4">
+        <v>195</v>
+      </c>
+      <c r="F47" s="4">
+        <v>280</v>
+      </c>
+      <c r="G47" s="4">
+        <v>80</v>
+      </c>
+      <c r="H47" s="4">
+        <v>80</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="4">
+        <v>295</v>
+      </c>
+      <c r="F48" s="4">
+        <v>480</v>
+      </c>
+      <c r="G48" s="4">
+        <v>175</v>
+      </c>
+      <c r="H48" s="4">
+        <v>175</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:10">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="4">
+        <v>70</v>
+      </c>
+      <c r="F49" s="4">
         <v>120</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="2">
-        <v>160</v>
-      </c>
-      <c r="F45" s="2">
-        <v>240</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="2">
-        <v>80</v>
-      </c>
-      <c r="F46" s="2">
-        <v>100</v>
-      </c>
-      <c r="G46" s="2">
-        <v>18</v>
-      </c>
-      <c r="H46" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="2">
-        <v>195</v>
-      </c>
-      <c r="F47" s="2">
-        <v>280</v>
-      </c>
-      <c r="G47" s="2">
-        <v>80</v>
-      </c>
-      <c r="H47" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="2">
-        <v>295</v>
-      </c>
-      <c r="F48" s="2">
-        <v>480</v>
-      </c>
-      <c r="G48" s="2">
-        <v>175</v>
-      </c>
-      <c r="H48" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="2:8">
-      <c r="B49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="2">
-        <v>70</v>
-      </c>
-      <c r="F49" s="2">
-        <v>120</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
         <f t="shared" ref="H49:H55" si="1">(F49*0.93-E49)*0.95</f>
         <v>39.52</v>
       </c>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="2:8">
-      <c r="B50" s="2" t="s">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:10">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="4">
         <v>40</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>70</v>
       </c>
-      <c r="H50" s="2">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
         <f t="shared" si="1"/>
         <v>23.845</v>
       </c>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="2:8">
-      <c r="B51" s="2" t="s">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:10">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>350</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>596</v>
       </c>
-      <c r="H51" s="2">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
         <f t="shared" si="1"/>
         <v>194.066</v>
       </c>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="2:8">
-      <c r="B52" s="2" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:10">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="E52" s="4">
         <v>198</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="4">
         <v>328</v>
       </c>
-      <c r="H52" s="2">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
         <f t="shared" si="1"/>
         <v>101.688</v>
       </c>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="2:8">
-      <c r="B53" s="2" t="s">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:10">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
         <v>290</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="4">
         <v>380</v>
       </c>
-      <c r="H53" s="2">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
         <f t="shared" si="1"/>
         <v>60.23</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" spans="2:8">
-      <c r="B54" s="2" t="s">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:10">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="E54" s="4">
         <v>220</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="4">
         <v>360</v>
       </c>
-      <c r="H54" s="2">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <f t="shared" si="1"/>
         <v>109.06</v>
       </c>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="2:8">
-      <c r="B55" s="2" t="s">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:10">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="E55" s="4">
         <v>60</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="4">
         <v>90</v>
       </c>
-      <c r="H55" s="2">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
         <f t="shared" si="1"/>
         <v>22.515</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="2:4">
-      <c r="B56" s="2" t="s">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:10">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:10">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="2:8">
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="E57" s="4">
         <v>98</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="4">
         <v>120</v>
       </c>
-      <c r="H57" s="2">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4">
         <f t="shared" ref="H57:H59" si="2">(F57*0.93-E57)*0.95</f>
         <v>12.92</v>
       </c>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="2:8">
-      <c r="B58" s="2" t="s">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:10">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="E58" s="4">
         <v>160</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="4">
         <v>220</v>
       </c>
-      <c r="H58" s="2">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
         <f t="shared" si="2"/>
         <v>42.37</v>
       </c>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="2:8">
-      <c r="B59" s="2" t="s">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:10">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="4">
         <v>98</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="4">
         <v>120</v>
       </c>
-      <c r="H59" s="2">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
         <f t="shared" si="2"/>
         <v>12.92</v>
       </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" s="2">
@@ -4106,16 +4330,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E64" s="2">
         <v>116</v>
@@ -4130,13 +4354,13 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E65" s="2">
         <v>164</v>
@@ -4151,13 +4375,13 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" s="2">
         <v>116</v>
@@ -4171,14 +4395,14 @@
       </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E67" s="2">
         <v>60</v>
@@ -4193,13 +4417,13 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E68" s="2">
         <v>60</v>
@@ -4214,13 +4438,13 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E69" s="2">
         <v>60</v>
@@ -4235,13 +4459,13 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70" s="2">
         <v>42</v>
@@ -4256,13 +4480,13 @@
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E71" s="2">
         <v>35</v>
@@ -4277,13 +4501,13 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E72" s="2">
         <v>288</v>
@@ -4297,14 +4521,14 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="D73" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E73" s="2">
         <v>220</v>
@@ -4318,14 +4542,14 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>187</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E74" s="2">
         <v>120</v>
@@ -4346,24 +4570,24 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="D76" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E76" s="7">
+      <c r="E76" s="14">
         <v>192</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="15">
         <v>480</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="15">
         <v>260</v>
       </c>
       <c r="H76" s="2">
@@ -4371,22 +4595,22 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="D77" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="E77" s="14">
         <v>162</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="15">
         <v>360</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="15">
         <v>180</v>
       </c>
       <c r="H77" s="2">
@@ -4394,44 +4618,44 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="D78" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E78" s="7">
+      <c r="E78" s="14">
         <v>108</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="15">
         <v>240</v>
       </c>
-      <c r="G78" s="11"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="2">
         <f t="shared" si="0"/>
         <v>109.44</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="D79" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E79" s="7">
+      <c r="E79" s="14">
         <v>232</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="15">
         <v>580</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="15">
         <v>320</v>
       </c>
       <c r="H79" s="2">
@@ -4439,22 +4663,22 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="D80" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="7">
+      <c r="E80" s="14">
         <v>720</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="15">
         <v>1800</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="15">
         <v>1002</v>
       </c>
       <c r="H80" s="2">
@@ -4469,339 +4693,339 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E82" s="11">
+      <c r="E82" s="15">
         <v>134.4</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="15">
         <v>336</v>
       </c>
-      <c r="G82" s="11"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="2">
         <f t="shared" si="3"/>
         <v>169.176</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E83" s="11">
+      <c r="E83" s="15">
         <v>24.8</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="15">
         <v>62</v>
       </c>
-      <c r="G83" s="11"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="2">
         <f t="shared" si="3"/>
         <v>31.217</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E84" s="11">
+      <c r="E84" s="15">
         <v>42.8</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="15">
         <v>107</v>
       </c>
-      <c r="G84" s="11"/>
+      <c r="G84" s="15"/>
       <c r="H84" s="2">
         <f t="shared" si="3"/>
         <v>53.8745</v>
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D85" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E85" s="11">
+      <c r="E85" s="15">
         <v>22.8</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="15">
         <v>57</v>
       </c>
-      <c r="G85" s="11"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="2">
         <f t="shared" si="3"/>
         <v>28.6995</v>
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D86" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E86" s="11">
+      <c r="E86" s="15">
         <v>18</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="15">
         <v>45</v>
       </c>
-      <c r="G86" s="11"/>
+      <c r="G86" s="15"/>
       <c r="H86" s="2">
         <f t="shared" si="3"/>
         <v>22.6575</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="D87" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" s="11">
+      <c r="E87" s="15">
         <v>18</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="15">
         <v>45</v>
       </c>
-      <c r="G87" s="11"/>
+      <c r="G87" s="15"/>
       <c r="H87" s="2">
         <f t="shared" si="3"/>
         <v>22.6575</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E88" s="11">
+      <c r="D88" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="15">
         <v>15.2</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="15">
         <v>38</v>
       </c>
-      <c r="G88" s="11"/>
+      <c r="G88" s="15"/>
       <c r="H88" s="2">
         <f t="shared" si="3"/>
         <v>19.133</v>
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="D89" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E89" s="10">
+      <c r="E89" s="13">
         <v>310</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="15">
         <v>698</v>
       </c>
-      <c r="G89" s="11"/>
+      <c r="G89" s="15"/>
       <c r="H89" s="2">
         <f t="shared" si="3"/>
         <v>322.183</v>
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="D90" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E90" s="10">
+      <c r="E90" s="13">
         <v>30</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="15">
         <v>58</v>
       </c>
-      <c r="G90" s="11"/>
+      <c r="G90" s="15"/>
       <c r="H90" s="2">
         <f t="shared" si="3"/>
         <v>22.743</v>
       </c>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="D91" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E91" s="10">
+      <c r="E91" s="13">
         <v>18</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="15">
         <v>36</v>
       </c>
-      <c r="G91" s="11"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="2">
         <f t="shared" si="3"/>
         <v>14.706</v>
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="D92" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E92" s="10">
+      <c r="E92" s="13">
         <v>9</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="15">
         <v>20</v>
       </c>
-      <c r="G92" s="11"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="2">
         <f t="shared" si="3"/>
         <v>9.12</v>
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="D93" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D93" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E93" s="10">
+      <c r="E93" s="13">
         <v>26</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="15">
         <v>46</v>
       </c>
-      <c r="G93" s="11"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="2">
         <f t="shared" si="3"/>
         <v>15.941</v>
       </c>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E94" s="11">
+      <c r="E94" s="15">
         <v>20</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="15">
         <v>28</v>
       </c>
-      <c r="G94" s="11"/>
+      <c r="G94" s="15"/>
       <c r="H94" s="2">
         <f t="shared" si="3"/>
         <v>5.738</v>
       </c>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="D95" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E95" s="10">
+      <c r="E95" s="13">
         <v>58</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="15">
         <v>108</v>
       </c>
-      <c r="G95" s="11"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="2">
         <f t="shared" si="3"/>
         <v>40.318</v>
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="D96" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E96" s="10">
+      <c r="E96" s="13">
         <v>32</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="15">
         <v>67</v>
       </c>
-      <c r="G96" s="11"/>
+      <c r="G96" s="15"/>
       <c r="H96" s="2">
         <f t="shared" si="3"/>
         <v>28.7945</v>
       </c>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="10"/>
+      <c r="B97" s="13"/>
       <c r="H97" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4809,21 +5033,21 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="C98" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C98" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" s="16">
+      <c r="D98" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" s="20">
         <v>38</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="15">
         <v>88</v>
       </c>
       <c r="H98" s="2">
@@ -4832,19 +5056,19 @@
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E99" s="19">
+      <c r="D99" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="24">
         <v>360</v>
       </c>
-      <c r="F99" s="19">
+      <c r="F99" s="24">
         <v>680</v>
       </c>
       <c r="G99" s="2">
@@ -4855,19 +5079,19 @@
       </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C100" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="11">
+      <c r="D100" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="15">
         <v>80</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="15">
         <v>280</v>
       </c>
       <c r="G100" s="2">
@@ -4878,19 +5102,19 @@
       </c>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C101" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E101" s="11">
+      <c r="D101" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="15">
         <v>34</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="15">
         <v>68</v>
       </c>
       <c r="H101" s="2">
@@ -4899,19 +5123,19 @@
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="D102" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="15">
         <v>35</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="15">
         <v>58</v>
       </c>
       <c r="H102" s="2">
@@ -4920,19 +5144,19 @@
       </c>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="C103" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103" s="11">
+      <c r="D103" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="15">
         <v>39</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="15">
         <v>68</v>
       </c>
       <c r="H103" s="2">
@@ -4941,19 +5165,19 @@
       </c>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="D104" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E104" s="11">
+      <c r="E104" s="15">
         <v>80</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="15">
         <v>128</v>
       </c>
       <c r="H104" s="2">
@@ -4962,19 +5186,19 @@
       </c>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="D105" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E105" s="11">
+      <c r="E105" s="15">
         <v>180</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="15">
         <v>280</v>
       </c>
       <c r="G105" s="2">
@@ -4985,19 +5209,19 @@
       </c>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="D106" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E106" s="11">
+      <c r="E106" s="15">
         <v>50</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="15">
         <v>98</v>
       </c>
       <c r="H106" s="2">
@@ -5006,8 +5230,8 @@
       </c>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="21"/>
-      <c r="C107" s="20"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="25"/>
       <c r="H107" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5021,16 +5245,16 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E109" s="2">
         <v>16.8</v>
@@ -5045,13 +5269,13 @@
     </row>
     <row r="110" spans="2:8">
       <c r="B110" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E110" s="2">
         <v>28.8</v>
@@ -5066,10 +5290,10 @@
     </row>
     <row r="111" spans="2:8">
       <c r="B111" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="E111" s="2">
         <v>17.5</v>
@@ -5084,13 +5308,13 @@
     </row>
     <row r="112" spans="2:8">
       <c r="B112" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="E112" s="2">
         <v>13.8</v>
@@ -5105,13 +5329,13 @@
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E113" s="2">
         <v>3.8</v>
@@ -5126,13 +5350,13 @@
     </row>
     <row r="114" spans="2:8">
       <c r="B114" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E114" s="2">
         <v>26.7</v>
@@ -5147,10 +5371,10 @@
     </row>
     <row r="115" spans="2:8">
       <c r="B115" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="E115" s="2">
         <v>11.7</v>
@@ -5165,10 +5389,10 @@
     </row>
     <row r="116" spans="2:8">
       <c r="B116" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E116" s="2">
         <v>15</v>
@@ -5183,13 +5407,13 @@
     </row>
     <row r="117" spans="2:8">
       <c r="B117" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E117" s="2">
         <v>9</v>
@@ -5204,10 +5428,10 @@
     </row>
     <row r="118" spans="2:8">
       <c r="B118" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="E118" s="2">
         <v>14</v>
@@ -5222,10 +5446,10 @@
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E119" s="2">
         <v>30</v>
@@ -5240,10 +5464,10 @@
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E120" s="2">
         <v>3.6</v>
@@ -5273,18 +5497,18 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B123" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="C123" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="D123" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="D123" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E123" s="22">
+      <c r="E123" s="27">
         <v>120</v>
       </c>
       <c r="F123" s="2">
@@ -5296,16 +5520,16 @@
       </c>
     </row>
     <row r="124" spans="2:8">
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="C124" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E124" s="22">
+      <c r="D124" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E124" s="27">
         <v>160</v>
       </c>
       <c r="F124" s="2">
@@ -5317,16 +5541,16 @@
       </c>
     </row>
     <row r="125" spans="2:8">
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="C125" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="C125" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E125" s="22">
+      <c r="D125" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E125" s="27">
         <v>210</v>
       </c>
       <c r="F125" s="2">
@@ -5338,16 +5562,16 @@
       </c>
     </row>
     <row r="126" spans="2:8">
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="C126" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E126" s="22">
+      <c r="D126" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E126" s="27">
         <v>170</v>
       </c>
       <c r="F126" s="2">
@@ -5359,16 +5583,16 @@
       </c>
     </row>
     <row r="127" spans="2:8">
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C127" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E127" s="22">
+      <c r="D127" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" s="27">
         <v>160</v>
       </c>
       <c r="F127" s="2">
@@ -5380,16 +5604,16 @@
       </c>
     </row>
     <row r="128" spans="2:8">
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="C128" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E128" s="22">
+      <c r="D128" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E128" s="27">
         <v>170</v>
       </c>
       <c r="F128" s="2">
@@ -5401,16 +5625,16 @@
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C129" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D129" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E129" s="22">
+      <c r="D129" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E129" s="27">
         <v>185</v>
       </c>
       <c r="F129" s="2">
@@ -5422,16 +5646,16 @@
       </c>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C130" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="C130" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E130" s="22">
+      <c r="D130" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E130" s="27">
         <v>155</v>
       </c>
       <c r="F130" s="2">
@@ -5443,16 +5667,16 @@
       </c>
     </row>
     <row r="131" spans="2:8">
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="C131" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E131" s="22">
+      <c r="D131" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E131" s="27">
         <v>155</v>
       </c>
       <c r="F131" s="2">
@@ -5464,16 +5688,16 @@
       </c>
     </row>
     <row r="132" spans="2:8">
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C132" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="C132" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E132" s="22">
+      <c r="D132" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E132" s="27">
         <v>185</v>
       </c>
       <c r="F132" s="2">
@@ -5485,16 +5709,16 @@
       </c>
     </row>
     <row r="133" spans="2:8">
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C133" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C133" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E133" s="22">
+      <c r="D133" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E133" s="27">
         <v>185</v>
       </c>
       <c r="F133" s="2">
@@ -5506,16 +5730,16 @@
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C134" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="C134" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E134" s="22">
+      <c r="D134" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E134" s="27">
         <v>180</v>
       </c>
       <c r="F134" s="2">
@@ -5527,16 +5751,16 @@
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="C135" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E135" s="22">
+      <c r="D135" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E135" s="27">
         <v>245</v>
       </c>
       <c r="F135" s="2">
@@ -5548,60 +5772,60 @@
       </c>
     </row>
     <row r="136" spans="2:8">
-      <c r="B136" s="24" t="s">
+      <c r="B136" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C136" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="C136" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E136" s="24">
+      <c r="D136" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E136" s="29">
         <v>185</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F136" s="24">
         <v>346</v>
       </c>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19">
+      <c r="G136" s="24"/>
+      <c r="H136" s="24">
         <f t="shared" si="3"/>
         <v>129.941</v>
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C137" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C137" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D137" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E137" s="24">
+      <c r="D137" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E137" s="29">
         <v>160</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="24">
         <v>318</v>
       </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19">
+      <c r="G137" s="24"/>
+      <c r="H137" s="24">
         <f t="shared" si="3"/>
         <v>128.953</v>
       </c>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="C138" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E138" s="22">
+      <c r="D138" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E138" s="27">
         <v>220</v>
       </c>
       <c r="F138" s="2">
@@ -5613,16 +5837,16 @@
       </c>
     </row>
     <row r="139" spans="2:8">
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C139" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="C139" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E139" s="22">
+      <c r="D139" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E139" s="27">
         <v>180</v>
       </c>
       <c r="F139" s="2">
@@ -5634,16 +5858,16 @@
       </c>
     </row>
     <row r="140" spans="2:8">
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C140" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="C140" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E140" s="22">
+      <c r="D140" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E140" s="27">
         <v>210</v>
       </c>
       <c r="F140" s="2">
@@ -5655,16 +5879,16 @@
       </c>
     </row>
     <row r="141" spans="2:8">
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C141" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="C141" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E141" s="22">
+      <c r="D141" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E141" s="27">
         <v>170</v>
       </c>
       <c r="F141" s="2">

--- a/商品上架单.xlsx
+++ b/商品上架单.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LinQin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="340">
   <si>
     <t>产品编号</t>
   </si>
@@ -945,7 +950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -963,7 +968,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72537</t>
     </r>
@@ -995,7 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1013,7 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72419</t>
     </r>
@@ -1036,7 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1054,7 +1059,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72453</t>
     </r>
@@ -1086,7 +1091,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72536</t>
     </r>
@@ -1109,7 +1114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1127,7 +1132,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72535</t>
     </r>
@@ -1159,7 +1164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>V</t>
     </r>
@@ -1177,7 +1182,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72533</t>
     </r>
@@ -1200,7 +1205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1218,7 +1223,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>T</t>
     </r>
@@ -1236,7 +1241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1254,7 +1259,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1272,7 +1277,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72530</t>
     </r>
@@ -1304,7 +1309,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1322,7 +1327,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1340,7 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72529</t>
     </r>
@@ -1363,7 +1368,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1381,7 +1386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72528</t>
     </r>
@@ -1404,7 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1422,7 +1427,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72525</t>
     </r>
@@ -1446,7 +1451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1466,7 +1471,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72526</t>
     </r>
@@ -1500,7 +1505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1520,7 +1525,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1540,7 +1545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72520</t>
     </r>
@@ -1564,7 +1569,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1584,7 +1589,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>72198</t>
     </r>
@@ -1608,7 +1613,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1628,7 +1633,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -1648,7 +1653,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>61820</t>
     </r>
@@ -1681,14 +1686,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="44">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1788,170 +1787,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1964,7 +1812,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1978,7 +1826,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1987,8 +1835,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1997,198 +1850,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2196,286 +1863,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2534,59 +1932,50 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2847,8 +2236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2868,1467 +2256,1467 @@
     <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="23">
         <v>48</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="23">
         <v>70</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="23">
         <v>20</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="23">
         <v>20</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="23">
         <v>18</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="23">
         <v>32</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="23">
         <v>13</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="23">
         <v>13</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="23">
         <v>18</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="23">
         <v>32</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="23">
         <v>13</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="23">
         <v>13</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="23">
         <v>95</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="23">
         <v>120</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="23">
         <v>20</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="23">
         <v>20</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="23">
         <v>28</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="23">
         <v>42</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <f t="shared" ref="H6:I78" si="0">(F6*0.93-E6)*0.95</f>
-        <v>10.507</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+        <v>10.507000000000001</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="23">
         <v>48</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="23">
         <v>70</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="23">
         <v>20</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="23">
         <v>20</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="23">
         <v>150</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="23">
         <v>250</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
         <v>78.375</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="24">
         <v>150</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="25">
         <v>290</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4">
+      <c r="G9" s="25"/>
+      <c r="H9" s="23">
         <f t="shared" si="0"/>
-        <v>113.715</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+        <v>113.71499999999999</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="24">
         <v>60</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="25">
         <v>120</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4">
+      <c r="G10" s="25"/>
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>49.02</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="26">
         <v>50</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="27">
         <v>120</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4">
+      <c r="G11" s="27"/>
+      <c r="H11" s="23">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="26">
         <v>50</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="27">
         <v>120</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4">
+      <c r="G12" s="27"/>
+      <c r="H12" s="23">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="28">
         <v>190</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="23">
         <v>350</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="23">
         <v>140</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="23">
         <v>140</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="28">
         <v>320</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="23">
         <v>620</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
         <f t="shared" si="0"/>
         <v>243.77</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="26">
         <v>220</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="27">
         <v>420</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4">
+      <c r="G15" s="27"/>
+      <c r="H15" s="23">
         <f t="shared" si="0"/>
-        <v>162.07</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+        <v>162.07000000000002</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="28">
         <v>180</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="23">
         <v>290</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
         <f t="shared" si="0"/>
-        <v>85.215</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+        <v>85.214999999999989</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="26">
         <v>110</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="27">
         <v>220</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4">
+      <c r="G17" s="27"/>
+      <c r="H17" s="23">
         <f t="shared" si="0"/>
-        <v>89.87</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+        <v>89.870000000000019</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="26">
         <v>380</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="27">
         <v>880</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4">
+      <c r="G18" s="27"/>
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
-        <v>416.48</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+        <v>416.48000000000008</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="26">
         <v>310</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="27">
         <v>680</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4">
+      <c r="G19" s="27"/>
+      <c r="H19" s="23">
         <f t="shared" si="0"/>
-        <v>306.28</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+        <v>306.27999999999997</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="26">
         <v>220</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="27">
         <v>480</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4">
+      <c r="G20" s="27"/>
+      <c r="H20" s="23">
         <f t="shared" si="0"/>
         <v>215.08</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="26">
         <v>160</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="27">
         <v>320</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4">
+      <c r="G21" s="27"/>
+      <c r="H21" s="23">
         <f t="shared" si="0"/>
-        <v>130.72</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+        <v>130.72000000000003</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="28">
         <v>360</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="23">
         <v>720</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="23">
         <v>320</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="23">
         <v>320</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="26">
         <v>140</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="27">
         <v>320</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4">
+      <c r="G23" s="27"/>
+      <c r="H23" s="23">
         <f t="shared" si="0"/>
-        <v>149.72</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+        <v>149.72000000000003</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="26">
         <v>280</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="27">
         <v>420</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="4">
+      <c r="G24" s="27"/>
+      <c r="H24" s="23">
         <f t="shared" si="0"/>
-        <v>105.07</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+        <v>105.07000000000002</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="23">
         <v>180</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="23">
         <v>360</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="23">
         <v>162</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="23">
         <v>162</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="4">
+      <c r="A29" s="23">
         <v>25</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="23">
         <v>180</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="23">
         <v>464</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="23">
         <v>250</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="23">
         <v>250</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="23">
         <v>168</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="23">
         <v>400</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="23">
         <v>224</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="23">
         <v>224</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="23">
         <v>98</v>
       </c>
-      <c r="F31" s="4">
-        <v>156.8</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="23">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="G31" s="23">
         <v>55</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="23">
         <v>55</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="23">
         <v>134</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="23">
         <v>222</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="23">
         <v>82</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="23">
         <v>82</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="23">
         <v>84</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="23">
         <v>135</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="23">
         <v>48</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="23">
         <v>48</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="23">
         <v>96</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="23">
         <v>280</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="23">
         <v>170</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="23">
         <v>170</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
+      <c r="I34" s="23"/>
+      <c r="J34" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="23">
         <v>68</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="23">
         <v>209</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="23">
         <v>134</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="23">
         <v>134</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="23">
         <v>118</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="23">
         <v>347</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="23">
         <v>215</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="23">
         <v>215</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4" t="s">
+      <c r="I36" s="23"/>
+      <c r="J36" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="27">
         <v>78</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="27">
         <v>228</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="23">
         <v>142</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="23">
         <v>142</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4" t="s">
+      <c r="I37" s="23"/>
+      <c r="J37" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="4"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="23">
         <v>69.8</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="23">
         <v>111</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="23">
         <v>38</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="23">
         <v>38</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="23">
         <v>67</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="23">
         <v>107</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="23">
         <v>38</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="23">
         <v>38</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="23">
         <v>100</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="23">
         <v>160</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="23">
         <v>57</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="23">
         <v>57</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="23">
         <v>140</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="23">
         <v>180</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4">
+      <c r="G43" s="23"/>
+      <c r="H43" s="23">
         <v>27</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="23">
         <v>160</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="23">
         <v>240</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="30">
         <v>150</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="4" t="s">
+      <c r="H44" s="30"/>
+      <c r="I44" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="23"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="23">
         <v>160</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="23">
         <v>240</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="23">
         <v>80</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="23">
         <v>100</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="23">
         <v>18</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="23">
         <v>18</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="23">
         <v>195</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="23">
         <v>280</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="23">
         <v>80</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="23">
         <v>80</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="23">
         <v>295</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="23">
         <v>480</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="23">
         <v>175</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="23">
         <v>175</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:10">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="23">
         <v>70</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="23">
         <v>120</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4">
+      <c r="G49" s="23"/>
+      <c r="H49" s="23">
         <f t="shared" ref="H49:H55" si="1">(F49*0.93-E49)*0.95</f>
-        <v>39.52</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:10">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="23">
         <v>40</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="23">
         <v>70</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4">
+      <c r="G50" s="23"/>
+      <c r="H50" s="23">
         <f t="shared" si="1"/>
-        <v>23.845</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:10">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
+        <v>23.845000000000006</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="23">
         <v>350</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="23">
         <v>596</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4">
+      <c r="G51" s="23"/>
+      <c r="H51" s="23">
         <f t="shared" si="1"/>
-        <v>194.066</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="1:10">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
+        <v>194.06599999999997</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="23">
         <v>198</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="23">
         <v>328</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4">
+      <c r="G52" s="23"/>
+      <c r="H52" s="23">
         <f t="shared" si="1"/>
-        <v>101.688</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:10">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
+        <v>101.68800000000002</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="23">
         <v>290</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="23">
         <v>380</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4">
+      <c r="G53" s="23"/>
+      <c r="H53" s="23">
         <f t="shared" si="1"/>
-        <v>60.23</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" s="2" customFormat="1" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
+        <v>60.230000000000032</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="23">
         <v>220</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="23">
         <v>360</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4">
+      <c r="G54" s="23"/>
+      <c r="H54" s="23">
         <f t="shared" si="1"/>
         <v>109.06</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="1:10">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="31">
         <v>60</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="31">
         <v>90</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4">
+      <c r="G55" s="23"/>
+      <c r="H55" s="31">
         <f t="shared" si="1"/>
-        <v>22.515</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:10">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
+        <v>22.515000000000001</v>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:10">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
+      <c r="C56" s="23"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="23">
         <v>98</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="23">
         <v>120</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4">
+      <c r="G57" s="23"/>
+      <c r="H57" s="23">
         <f t="shared" ref="H57:H59" si="2">(F57*0.93-E57)*0.95</f>
-        <v>12.92</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
+        <v>12.920000000000007</v>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="23">
         <v>160</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="23">
         <v>220</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4">
+      <c r="G58" s="23"/>
+      <c r="H58" s="23">
         <f t="shared" si="2"/>
-        <v>42.37</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
+        <v>42.370000000000019</v>
+      </c>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="23">
         <v>98</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="23">
         <v>120</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4">
+      <c r="G59" s="23"/>
+      <c r="H59" s="23">
         <f t="shared" si="2"/>
-        <v>12.92</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="63" spans="9:9">
+        <v>12.920000000000007</v>
+      </c>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="I63" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -4349,10 +3737,10 @@
       </c>
       <c r="H64" s="2">
         <f t="shared" si="0"/>
-        <v>545.357</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
+        <v>545.35700000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="B65" s="2" t="s">
         <v>160</v>
       </c>
@@ -4373,7 +3761,7 @@
         <v>771.875</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="1:8">
       <c r="B66" s="2" t="s">
         <v>163</v>
       </c>
@@ -4391,11 +3779,11 @@
       </c>
       <c r="H66" s="2">
         <f t="shared" si="0"/>
-        <v>545.357</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="12" t="s">
+        <v>545.35700000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -4412,10 +3800,10 @@
       </c>
       <c r="H67" s="2">
         <f t="shared" si="0"/>
-        <v>282.264</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
+        <v>282.26400000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="B68" s="2" t="s">
         <v>168</v>
       </c>
@@ -4433,10 +3821,10 @@
       </c>
       <c r="H68" s="2">
         <f t="shared" si="0"/>
-        <v>282.264</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
+        <v>282.26400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="B69" s="2" t="s">
         <v>171</v>
       </c>
@@ -4454,10 +3842,10 @@
       </c>
       <c r="H69" s="2">
         <f t="shared" si="0"/>
-        <v>282.264</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
+        <v>282.26400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="B70" s="2" t="s">
         <v>174</v>
       </c>
@@ -4475,10 +3863,10 @@
       </c>
       <c r="H70" s="2">
         <f t="shared" si="0"/>
-        <v>197.7615</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
+        <v>197.76150000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="B71" s="2" t="s">
         <v>176</v>
       </c>
@@ -4496,10 +3884,10 @@
       </c>
       <c r="H71" s="2">
         <f t="shared" si="0"/>
-        <v>164.654</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
+        <v>164.65400000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="B72" s="2" t="s">
         <v>179</v>
       </c>
@@ -4517,14 +3905,14 @@
       </c>
       <c r="H72" s="2">
         <f t="shared" si="0"/>
-        <v>843.144</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="13" t="s">
+        <v>843.14399999999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -4538,14 +3926,14 @@
       </c>
       <c r="H73" s="2">
         <f t="shared" si="0"/>
-        <v>73.72</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="13" t="s">
+        <v>73.720000000000013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -4559,10 +3947,10 @@
       </c>
       <c r="H74" s="2">
         <f t="shared" si="0"/>
-        <v>80.37</v>
-      </c>
-    </row>
-    <row r="75" spans="8:8">
+        <v>80.370000000000019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="H75" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4572,120 +3960,120 @@
       <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="5">
         <v>192</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="6">
         <v>480</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="6">
         <v>260</v>
       </c>
       <c r="H76" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="13" t="s">
+    <row r="77" spans="1:8">
+      <c r="B77" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="5">
         <v>162</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="6">
         <v>360</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="6">
         <v>180</v>
       </c>
       <c r="H77" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="13" t="s">
+    <row r="78" spans="1:8">
+      <c r="B78" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="5">
         <v>108</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="6">
         <v>240</v>
       </c>
-      <c r="G78" s="15"/>
+      <c r="G78" s="6"/>
       <c r="H78" s="2">
         <f t="shared" si="0"/>
-        <v>109.44</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="13" t="s">
+        <v>109.44000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="5">
         <v>232</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="6">
         <v>580</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="6">
         <v>320</v>
       </c>
       <c r="H79" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="13" t="s">
+    <row r="80" spans="1:8">
+      <c r="B80" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="5">
         <v>720</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="6">
         <v>1800</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="6">
         <v>1002</v>
       </c>
       <c r="H80" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="81" spans="8:8">
+    <row r="81" spans="1:8">
       <c r="H81" s="2">
         <f t="shared" ref="H81:H141" si="3">(F81*0.93-E81)*0.95</f>
         <v>0</v>
@@ -4695,337 +4083,337 @@
       <c r="A82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="6">
         <v>134.4</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F82" s="6">
         <v>336</v>
       </c>
-      <c r="G82" s="15"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="2">
         <f t="shared" si="3"/>
-        <v>169.176</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="13" t="s">
+        <v>169.17600000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="6">
         <v>24.8</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F83" s="6">
         <v>62</v>
       </c>
-      <c r="G83" s="15"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="2">
         <f t="shared" si="3"/>
-        <v>31.217</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="13" t="s">
+        <v>31.216999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="B84" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="6">
         <v>42.8</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F84" s="6">
         <v>107</v>
       </c>
-      <c r="G84" s="15"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="2">
         <f t="shared" si="3"/>
-        <v>53.8745</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="13" t="s">
+        <v>53.874500000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="6">
         <v>22.8</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="6">
         <v>57</v>
       </c>
-      <c r="G85" s="15"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="2">
         <f t="shared" si="3"/>
-        <v>28.6995</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="13" t="s">
+        <v>28.699500000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="6">
         <v>18</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F86" s="6">
         <v>45</v>
       </c>
-      <c r="G86" s="15"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="2">
         <f t="shared" si="3"/>
-        <v>22.6575</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="13" t="s">
+        <v>22.657499999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="6">
         <v>18</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F87" s="6">
         <v>45</v>
       </c>
-      <c r="G87" s="15"/>
+      <c r="G87" s="6"/>
       <c r="H87" s="2">
         <f t="shared" si="3"/>
-        <v>22.6575</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="13" t="s">
+        <v>22.657499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="6">
         <v>15.2</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F88" s="6">
         <v>38</v>
       </c>
-      <c r="G88" s="15"/>
+      <c r="G88" s="6"/>
       <c r="H88" s="2">
         <f t="shared" si="3"/>
-        <v>19.133</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="13" t="s">
+        <v>19.133000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="4">
         <v>310</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F89" s="6">
         <v>698</v>
       </c>
-      <c r="G89" s="15"/>
+      <c r="G89" s="6"/>
       <c r="H89" s="2">
         <f t="shared" si="3"/>
-        <v>322.183</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="13" t="s">
+        <v>322.18299999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="4">
         <v>30</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F90" s="6">
         <v>58</v>
       </c>
-      <c r="G90" s="15"/>
+      <c r="G90" s="6"/>
       <c r="H90" s="2">
         <f t="shared" si="3"/>
-        <v>22.743</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="13" t="s">
+        <v>22.743000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="4">
         <v>18</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F91" s="6">
         <v>36</v>
       </c>
-      <c r="G91" s="15"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="2">
         <f t="shared" si="3"/>
-        <v>14.706</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="13" t="s">
+        <v>14.706000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E92" s="4">
         <v>9</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F92" s="6">
         <v>20</v>
       </c>
-      <c r="G92" s="15"/>
+      <c r="G92" s="6"/>
       <c r="H92" s="2">
         <f t="shared" si="3"/>
-        <v>9.12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="13" t="s">
+        <v>9.120000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="4">
         <v>26</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F93" s="6">
         <v>46</v>
       </c>
-      <c r="G93" s="15"/>
+      <c r="G93" s="6"/>
       <c r="H93" s="2">
         <f t="shared" si="3"/>
-        <v>15.941</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="13" t="s">
+        <v>15.941000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="6">
         <v>20</v>
       </c>
-      <c r="F94" s="15">
+      <c r="F94" s="6">
         <v>28</v>
       </c>
-      <c r="G94" s="15"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="2">
         <f t="shared" si="3"/>
-        <v>5.738</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="13" t="s">
+        <v>5.7380000000000022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="4">
         <v>58</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F95" s="6">
         <v>108</v>
       </c>
-      <c r="G95" s="15"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="2">
         <f t="shared" si="3"/>
-        <v>40.318</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="13" t="s">
+        <v>40.318000000000012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="4">
         <v>32</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F96" s="6">
         <v>67</v>
       </c>
-      <c r="G96" s="15"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="2">
         <f t="shared" si="3"/>
-        <v>28.7945</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="13"/>
+        <v>28.794499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="4"/>
       <c r="H97" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5035,40 +4423,40 @@
       <c r="A98" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="11">
         <v>38</v>
       </c>
-      <c r="F98" s="15">
+      <c r="F98" s="6">
         <v>88</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="3"/>
-        <v>41.648</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="22" t="s">
+        <v>41.648000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="24">
+      <c r="E99" s="15">
         <v>360</v>
       </c>
-      <c r="F99" s="24">
+      <c r="F99" s="15">
         <v>680</v>
       </c>
       <c r="G99" s="2">
@@ -5078,20 +4466,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="25" t="s">
+    <row r="100" spans="1:8">
+      <c r="B100" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="6">
         <v>80</v>
       </c>
-      <c r="F100" s="15">
+      <c r="F100" s="6">
         <v>280</v>
       </c>
       <c r="G100" s="2">
@@ -5101,104 +4489,104 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="25" t="s">
+    <row r="101" spans="1:8">
+      <c r="B101" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="6">
         <v>34</v>
       </c>
-      <c r="F101" s="15">
+      <c r="F101" s="6">
         <v>68</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="3"/>
-        <v>27.778</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="20" t="s">
+        <v>27.778000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D102" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="6">
         <v>35</v>
       </c>
-      <c r="F102" s="15">
+      <c r="F102" s="6">
         <v>58</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="3"/>
-        <v>17.993</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="25" t="s">
+        <v>17.993000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="6">
         <v>39</v>
       </c>
-      <c r="F103" s="15">
+      <c r="F103" s="6">
         <v>68</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="3"/>
-        <v>23.028</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="13" t="s">
+        <v>23.028000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="6">
         <v>80</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F104" s="6">
         <v>128</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="3"/>
-        <v>37.088</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="20" t="s">
+        <v>37.088000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="6">
         <v>180</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="6">
         <v>280</v>
       </c>
       <c r="G105" s="2">
@@ -5208,36 +4596,36 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="25" t="s">
+    <row r="106" spans="1:8">
+      <c r="B106" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="6">
         <v>50</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="6">
         <v>98</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="3"/>
-        <v>39.083</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="26"/>
-      <c r="C107" s="25"/>
+        <v>39.082999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="17"/>
+      <c r="C107" s="16"/>
       <c r="H107" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="1:8">
       <c r="H108" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5264,10 +4652,10 @@
       </c>
       <c r="H109" s="2">
         <f t="shared" si="3"/>
-        <v>44.118</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
+        <v>44.117999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="B110" s="2" t="s">
         <v>274</v>
       </c>
@@ -5285,10 +4673,10 @@
       </c>
       <c r="H110" s="2">
         <f t="shared" si="3"/>
-        <v>68.058</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
+        <v>68.058000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="B111" s="2" t="s">
         <v>276</v>
       </c>
@@ -5306,7 +4694,7 @@
         <v>11.647</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="1:8">
       <c r="B112" s="2" t="s">
         <v>278</v>
       </c>
@@ -5324,10 +4712,10 @@
       </c>
       <c r="H112" s="2">
         <f t="shared" si="3"/>
-        <v>12.5115</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8">
+        <v>12.511500000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="B113" s="2" t="s">
         <v>281</v>
       </c>
@@ -5345,10 +4733,10 @@
       </c>
       <c r="H113" s="2">
         <f t="shared" si="3"/>
-        <v>3.458</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
+        <v>3.4580000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="B114" s="2" t="s">
         <v>284</v>
       </c>
@@ -5366,10 +4754,10 @@
       </c>
       <c r="H114" s="2">
         <f t="shared" si="3"/>
-        <v>14.3925</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8">
+        <v>14.392500000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="B115" s="2" t="s">
         <v>287</v>
       </c>
@@ -5384,10 +4772,10 @@
       </c>
       <c r="H115" s="2">
         <f t="shared" si="3"/>
-        <v>2.8443</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8">
+        <v>2.8443000000000014</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="B116" s="2" t="s">
         <v>289</v>
       </c>
@@ -5402,10 +4790,10 @@
       </c>
       <c r="H116" s="2">
         <f t="shared" si="3"/>
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8">
+        <v>3.4200000000000013</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="B117" s="2" t="s">
         <v>291</v>
       </c>
@@ -5423,10 +4811,10 @@
       </c>
       <c r="H117" s="2">
         <f t="shared" si="3"/>
-        <v>4.7025</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8">
+        <v>4.7025000000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="B118" s="2" t="s">
         <v>294</v>
       </c>
@@ -5441,10 +4829,10 @@
       </c>
       <c r="H118" s="2">
         <f t="shared" si="3"/>
-        <v>3.4865</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8">
+        <v>3.4865000000000013</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="B119" s="2" t="s">
         <v>296</v>
       </c>
@@ -5459,10 +4847,10 @@
       </c>
       <c r="H119" s="2">
         <f t="shared" si="3"/>
-        <v>5.073</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
+        <v>5.0730000000000031</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="B120" s="2" t="s">
         <v>298</v>
       </c>
@@ -5477,10 +4865,10 @@
       </c>
       <c r="H120" s="2">
         <f t="shared" si="3"/>
-        <v>7.182</v>
-      </c>
-    </row>
-    <row r="121" spans="6:8">
+        <v>7.1820000000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="F121" s="2">
         <v>0</v>
       </c>
@@ -5489,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="1:8">
       <c r="H122" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5499,16 +4887,16 @@
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B123" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E123" s="27">
+      <c r="E123" s="18">
         <v>120</v>
       </c>
       <c r="F123" s="2">
@@ -5516,20 +4904,20 @@
       </c>
       <c r="H123" s="2">
         <f t="shared" si="3"/>
-        <v>87.438</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="27" t="s">
+        <v>87.438000000000017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E124" s="27">
+      <c r="E124" s="18">
         <v>160</v>
       </c>
       <c r="F124" s="2">
@@ -5537,20 +4925,20 @@
       </c>
       <c r="H124" s="2">
         <f t="shared" si="3"/>
-        <v>112.1665</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8">
-      <c r="B125" s="27" t="s">
+        <v>112.16649999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="D125" s="28" t="s">
+      <c r="D125" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E125" s="27">
+      <c r="E125" s="18">
         <v>210</v>
       </c>
       <c r="F125" s="2">
@@ -5558,20 +4946,20 @@
       </c>
       <c r="H125" s="2">
         <f t="shared" si="3"/>
-        <v>153.0165</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126" s="27" t="s">
+        <v>153.01649999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="D126" s="28" t="s">
+      <c r="D126" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E126" s="27">
+      <c r="E126" s="18">
         <v>170</v>
       </c>
       <c r="F126" s="2">
@@ -5579,20 +4967,20 @@
       </c>
       <c r="H126" s="2">
         <f t="shared" si="3"/>
-        <v>117.686</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8">
-      <c r="B127" s="27" t="s">
+        <v>117.68599999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D127" s="28" t="s">
+      <c r="D127" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E127" s="27">
+      <c r="E127" s="18">
         <v>160</v>
       </c>
       <c r="F127" s="2">
@@ -5600,20 +4988,20 @@
       </c>
       <c r="H127" s="2">
         <f t="shared" si="3"/>
-        <v>121.0015</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8">
-      <c r="B128" s="27" t="s">
+        <v>121.00149999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="D128" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E128" s="27">
+      <c r="E128" s="18">
         <v>170</v>
       </c>
       <c r="F128" s="2">
@@ -5621,20 +5009,20 @@
       </c>
       <c r="H128" s="2">
         <f t="shared" si="3"/>
-        <v>125.6375</v>
+        <v>125.63749999999999</v>
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D129" s="28" t="s">
+      <c r="D129" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E129" s="27">
+      <c r="E129" s="18">
         <v>185</v>
       </c>
       <c r="F129" s="2">
@@ -5646,16 +5034,16 @@
       </c>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D130" s="28" t="s">
+      <c r="D130" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E130" s="27">
+      <c r="E130" s="18">
         <v>155</v>
       </c>
       <c r="F130" s="2">
@@ -5663,20 +5051,20 @@
       </c>
       <c r="H130" s="2">
         <f t="shared" si="3"/>
-        <v>55.955</v>
+        <v>55.955000000000005</v>
       </c>
     </row>
     <row r="131" spans="2:8">
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="D131" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E131" s="27">
+      <c r="E131" s="18">
         <v>155</v>
       </c>
       <c r="F131" s="2">
@@ -5684,20 +5072,20 @@
       </c>
       <c r="H131" s="2">
         <f t="shared" si="3"/>
-        <v>122.2175</v>
+        <v>122.21750000000003</v>
       </c>
     </row>
     <row r="132" spans="2:8">
-      <c r="B132" s="27" t="s">
+      <c r="B132" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E132" s="27">
+      <c r="E132" s="18">
         <v>185</v>
       </c>
       <c r="F132" s="2">
@@ -5709,16 +5097,16 @@
       </c>
     </row>
     <row r="133" spans="2:8">
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E133" s="27">
+      <c r="E133" s="18">
         <v>185</v>
       </c>
       <c r="F133" s="2">
@@ -5726,20 +5114,20 @@
       </c>
       <c r="H133" s="2">
         <f t="shared" si="3"/>
-        <v>18.62</v>
+        <v>18.620000000000022</v>
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="27" t="s">
+      <c r="B134" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D134" s="28" t="s">
+      <c r="D134" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E134" s="27">
+      <c r="E134" s="18">
         <v>180</v>
       </c>
       <c r="F134" s="2">
@@ -5747,20 +5135,20 @@
       </c>
       <c r="H134" s="2">
         <f t="shared" si="3"/>
-        <v>115.254</v>
+        <v>115.25399999999999</v>
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="27" t="s">
+      <c r="B135" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="D135" s="28" t="s">
+      <c r="D135" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E135" s="27">
+      <c r="E135" s="18">
         <v>245</v>
       </c>
       <c r="F135" s="2">
@@ -5772,60 +5160,60 @@
       </c>
     </row>
     <row r="136" spans="2:8">
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C136" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="D136" s="30" t="s">
+      <c r="D136" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="29">
+      <c r="E136" s="20">
         <v>185</v>
       </c>
-      <c r="F136" s="24">
+      <c r="F136" s="15">
         <v>346</v>
       </c>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24">
-        <f t="shared" si="3"/>
-        <v>129.941</v>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15">
+        <f t="shared" si="3"/>
+        <v>129.94100000000003</v>
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="C137" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D137" s="30" t="s">
+      <c r="D137" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="E137" s="29">
+      <c r="E137" s="20">
         <v>160</v>
       </c>
-      <c r="F137" s="24">
+      <c r="F137" s="15">
         <v>318</v>
       </c>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24">
+      <c r="G137" s="15"/>
+      <c r="H137" s="15">
         <f t="shared" si="3"/>
         <v>128.953</v>
       </c>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="27" t="s">
+      <c r="B138" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="D138" s="28" t="s">
+      <c r="D138" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E138" s="27">
+      <c r="E138" s="18">
         <v>220</v>
       </c>
       <c r="F138" s="2">
@@ -5833,20 +5221,20 @@
       </c>
       <c r="H138" s="2">
         <f t="shared" si="3"/>
-        <v>152.3515</v>
+        <v>152.35149999999999</v>
       </c>
     </row>
     <row r="139" spans="2:8">
-      <c r="B139" s="27" t="s">
+      <c r="B139" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D139" s="28" t="s">
+      <c r="D139" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E139" s="27">
+      <c r="E139" s="18">
         <v>180</v>
       </c>
       <c r="F139" s="2">
@@ -5854,20 +5242,20 @@
       </c>
       <c r="H139" s="2">
         <f t="shared" si="3"/>
-        <v>155.895</v>
+        <v>155.89500000000001</v>
       </c>
     </row>
     <row r="140" spans="2:8">
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="D140" s="28" t="s">
+      <c r="D140" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E140" s="27">
+      <c r="E140" s="18">
         <v>210</v>
       </c>
       <c r="F140" s="2">
@@ -5875,20 +5263,20 @@
       </c>
       <c r="H140" s="2">
         <f t="shared" si="3"/>
-        <v>160.968</v>
+        <v>160.96799999999999</v>
       </c>
     </row>
     <row r="141" spans="2:8">
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="D141" s="28" t="s">
+      <c r="D141" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E141" s="27">
+      <c r="E141" s="18">
         <v>170</v>
       </c>
       <c r="F141" s="2">
@@ -5896,7 +5284,7 @@
       </c>
       <c r="H141" s="2">
         <f t="shared" si="3"/>
-        <v>50.54</v>
+        <v>50.540000000000013</v>
       </c>
     </row>
   </sheetData>
@@ -5908,8 +5296,8 @@
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="G44:H45"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/商品上架单.xlsx
+++ b/商品上架单.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LinQin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10350" tabRatio="500"/>
+    <workbookView windowWidth="23280" windowHeight="10350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
   <si>
     <t>产品编号</t>
   </si>
@@ -48,7 +43,7 @@
     <t>未添加</t>
   </si>
   <si>
-    <t>名草汇</t>
+    <t>哈哈哈</t>
   </si>
   <si>
     <t>20170327MCH002</t>
@@ -950,7 +945,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -968,7 +963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72537</t>
     </r>
@@ -1000,7 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1018,7 +1013,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72419</t>
     </r>
@@ -1041,7 +1036,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1059,7 +1054,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72453</t>
     </r>
@@ -1091,7 +1086,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72536</t>
     </r>
@@ -1114,7 +1109,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1132,7 +1127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72535</t>
     </r>
@@ -1164,7 +1159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>V</t>
     </r>
@@ -1182,7 +1177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72533</t>
     </r>
@@ -1205,7 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1223,7 +1218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>T</t>
     </r>
@@ -1241,7 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1259,7 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1277,7 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72530</t>
     </r>
@@ -1309,7 +1304,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1327,7 +1322,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1345,7 +1340,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72529</t>
     </r>
@@ -1368,7 +1363,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1386,7 +1381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72528</t>
     </r>
@@ -1409,7 +1404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1427,7 +1422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72525</t>
     </r>
@@ -1451,7 +1446,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1471,7 +1466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72526</t>
     </r>
@@ -1505,7 +1500,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1525,7 +1520,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1545,7 +1540,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72520</t>
     </r>
@@ -1569,7 +1564,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1589,7 +1584,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72198</t>
     </r>
@@ -1613,7 +1608,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1633,7 +1628,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -1653,7 +1648,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>61820</t>
     </r>
@@ -1686,8 +1681,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1787,19 +1788,170 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1812,7 +1964,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1826,7 +1978,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1835,13 +1987,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1854,8 +2001,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1863,11 +2196,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1875,6 +2450,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,50 +2534,59 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2236,11 +2847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2256,1467 +2868,1467 @@
     <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="4">
         <v>48</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="4">
         <v>70</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="4">
         <v>20</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="4">
         <v>20</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="4">
         <v>18</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="4">
         <v>32</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="4">
         <v>13</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="4">
         <v>13</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="4">
         <v>18</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="4">
         <v>32</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="4">
         <v>13</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="4">
         <v>95</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="4">
         <v>120</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="4">
         <v>20</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="4">
         <v>20</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="4">
         <v>28</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="4">
         <v>42</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <f t="shared" ref="H6:I78" si="0">(F6*0.93-E6)*0.95</f>
-        <v>10.507000000000001</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+        <v>10.507</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="4">
         <v>48</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="4">
         <v>70</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="4">
         <v>20</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="4">
         <v>20</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="4">
         <v>150</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="4">
         <v>250</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>78.375</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="5">
         <v>150</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="6">
         <v>290</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23">
+      <c r="G9" s="6"/>
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>113.71499999999999</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+        <v>113.715</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="5">
         <v>60</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="6">
         <v>120</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23">
+      <c r="G10" s="6"/>
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>49.02</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="7">
         <v>50</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="8">
         <v>120</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="23">
+      <c r="G11" s="8"/>
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="7">
         <v>50</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="8">
         <v>120</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="23">
+      <c r="G12" s="8"/>
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="9">
         <v>190</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="4">
         <v>350</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="4">
         <v>140</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="4">
         <v>140</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="9">
         <v>320</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="4">
         <v>620</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>243.77</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="7">
         <v>220</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="8">
         <v>420</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="23">
+      <c r="G15" s="8"/>
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
-        <v>162.07000000000002</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+        <v>162.07</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="9">
         <v>180</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="4">
         <v>290</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>85.214999999999989</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+        <v>85.215</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="7">
         <v>110</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="8">
         <v>220</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="23">
+      <c r="G17" s="8"/>
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>89.870000000000019</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+        <v>89.87</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="7">
         <v>380</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="8">
         <v>880</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="23">
+      <c r="G18" s="8"/>
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>416.48000000000008</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+        <v>416.48</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="7">
         <v>310</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="8">
         <v>680</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="23">
+      <c r="G19" s="8"/>
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>306.27999999999997</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+        <v>306.28</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="7">
         <v>220</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="8">
         <v>480</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="23">
+      <c r="G20" s="8"/>
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>215.08</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="7">
         <v>160</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="8">
         <v>320</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="23">
+      <c r="G21" s="8"/>
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>130.72000000000003</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+        <v>130.72</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="9">
         <v>360</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="4">
         <v>720</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="4">
         <v>320</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="4">
         <v>320</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="7">
         <v>140</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="8">
         <v>320</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="23">
+      <c r="G23" s="8"/>
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>149.72000000000003</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+        <v>149.72</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="7">
         <v>280</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="8">
         <v>420</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="23">
+      <c r="G24" s="8"/>
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>105.07000000000002</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+        <v>105.07</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="4">
         <v>180</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="4">
         <v>360</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="4">
         <v>162</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="4">
         <v>162</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="23">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="4">
         <v>180</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="4">
         <v>464</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="4">
         <v>250</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="4">
         <v>250</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="4">
         <v>168</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="4">
         <v>400</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="4">
         <v>224</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="4">
         <v>224</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="4">
         <v>98</v>
       </c>
-      <c r="F31" s="23">
-        <v>156.80000000000001</v>
-      </c>
-      <c r="G31" s="23">
+      <c r="F31" s="4">
+        <v>156.8</v>
+      </c>
+      <c r="G31" s="4">
         <v>55</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="4">
         <v>55</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="4">
         <v>134</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="4">
         <v>222</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="4">
         <v>82</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="4">
         <v>82</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="4">
         <v>84</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="4">
         <v>135</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="4">
         <v>48</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="4">
         <v>48</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="4">
         <v>96</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="4">
         <v>280</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="4">
         <v>170</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="4">
         <v>170</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="4">
         <v>68</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="4">
         <v>209</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="4">
         <v>134</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="4">
         <v>134</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="4">
         <v>118</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="4">
         <v>347</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="4">
         <v>215</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="4">
         <v>215</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="23"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="8">
         <v>78</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="8">
         <v>228</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="4">
         <v>142</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="4">
         <v>142</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="23"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="4">
         <v>69.8</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="4">
         <v>111</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="4">
         <v>38</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="4">
         <v>67</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="4">
         <v>107</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="4">
         <v>38</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="4">
         <v>38</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="4">
         <v>100</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="4">
         <v>160</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="4">
         <v>57</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="4">
         <v>57</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="4">
         <v>140</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="4">
         <v>180</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
         <v>27</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="4">
         <v>160</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="4">
         <v>240</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="11">
         <v>150</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31" t="s">
+      <c r="H44" s="11"/>
+      <c r="I44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="23"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="4">
         <v>160</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="4">
         <v>240</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="23"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="4">
         <v>80</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="4">
         <v>100</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="4">
         <v>18</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="4">
         <v>18</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="4">
         <v>195</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="4">
         <v>280</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="4">
         <v>80</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="4">
         <v>80</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="4">
         <v>295</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="4">
         <v>480</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="4">
         <v>175</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="4">
         <v>175</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="4">
         <v>70</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="4">
         <v>120</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
         <f t="shared" ref="H49:H55" si="1">(F49*0.93-E49)*0.95</f>
-        <v>39.520000000000003</v>
-      </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+        <v>39.52</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="4">
         <v>40</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="4">
         <v>70</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
         <f t="shared" si="1"/>
-        <v>23.845000000000006</v>
-      </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+        <v>23.845</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="4">
         <v>350</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="4">
         <v>596</v>
       </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
         <f t="shared" si="1"/>
-        <v>194.06599999999997</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
+        <v>194.066</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="4">
         <v>198</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="4">
         <v>328</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
         <f t="shared" si="1"/>
-        <v>101.68800000000002</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
+        <v>101.688</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="4">
         <v>290</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="4">
         <v>380</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
         <f t="shared" si="1"/>
-        <v>60.230000000000032</v>
-      </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+        <v>60.23</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="4">
         <v>220</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="4">
         <v>360</v>
       </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <f t="shared" si="1"/>
         <v>109.06</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="4">
         <v>60</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="4">
         <v>90</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="31">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
         <f t="shared" si="1"/>
-        <v>22.515000000000001</v>
-      </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+        <v>22.515</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="4">
         <v>98</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="4">
         <v>120</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4">
         <f t="shared" ref="H57:H59" si="2">(F57*0.93-E57)*0.95</f>
-        <v>12.920000000000007</v>
-      </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+        <v>12.92</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="4">
         <v>160</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="4">
         <v>220</v>
       </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
         <f t="shared" si="2"/>
-        <v>42.370000000000019</v>
-      </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+        <v>42.37</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="4">
         <v>98</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="4">
         <v>120</v>
       </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
         <f t="shared" si="2"/>
-        <v>12.920000000000007</v>
-      </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="63" spans="1:10">
+        <v>12.92</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="63" spans="9:9">
       <c r="I63" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3737,10 +4349,10 @@
       </c>
       <c r="H64" s="2">
         <f t="shared" si="0"/>
-        <v>545.35700000000008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>545.357</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="2" t="s">
         <v>160</v>
       </c>
@@ -3761,7 +4373,7 @@
         <v>771.875</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="2:8">
       <c r="B66" s="2" t="s">
         <v>163</v>
       </c>
@@ -3779,11 +4391,11 @@
       </c>
       <c r="H66" s="2">
         <f t="shared" si="0"/>
-        <v>545.35700000000008</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" s="3" t="s">
+        <v>545.357</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3800,10 +4412,10 @@
       </c>
       <c r="H67" s="2">
         <f t="shared" si="0"/>
-        <v>282.26400000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>282.264</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="2" t="s">
         <v>168</v>
       </c>
@@ -3821,10 +4433,10 @@
       </c>
       <c r="H68" s="2">
         <f t="shared" si="0"/>
-        <v>282.26400000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>282.264</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="2" t="s">
         <v>171</v>
       </c>
@@ -3842,10 +4454,10 @@
       </c>
       <c r="H69" s="2">
         <f t="shared" si="0"/>
-        <v>282.26400000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>282.264</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="2" t="s">
         <v>174</v>
       </c>
@@ -3863,10 +4475,10 @@
       </c>
       <c r="H70" s="2">
         <f t="shared" si="0"/>
-        <v>197.76150000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>197.7615</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="2" t="s">
         <v>176</v>
       </c>
@@ -3884,10 +4496,10 @@
       </c>
       <c r="H71" s="2">
         <f t="shared" si="0"/>
-        <v>164.65400000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>164.654</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="2" t="s">
         <v>179</v>
       </c>
@@ -3905,14 +4517,14 @@
       </c>
       <c r="H72" s="2">
         <f t="shared" si="0"/>
-        <v>843.14399999999989</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" s="4" t="s">
+        <v>843.144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="13" t="s">
         <v>183</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3926,14 +4538,14 @@
       </c>
       <c r="H73" s="2">
         <f t="shared" si="0"/>
-        <v>73.720000000000013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" s="4" t="s">
+        <v>73.72</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3947,10 +4559,10 @@
       </c>
       <c r="H74" s="2">
         <f t="shared" si="0"/>
-        <v>80.370000000000019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
       <c r="H75" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3960,120 +4572,120 @@
       <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="14">
         <v>192</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="15">
         <v>480</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="15">
         <v>260</v>
       </c>
       <c r="H76" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="2:8">
+      <c r="B77" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="14">
         <v>162</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="15">
         <v>360</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="15">
         <v>180</v>
       </c>
       <c r="H77" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="B78" s="4" t="s">
+    <row r="78" spans="2:8">
+      <c r="B78" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="14">
         <v>108</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="15">
         <v>240</v>
       </c>
-      <c r="G78" s="6"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="2">
         <f t="shared" si="0"/>
-        <v>109.44000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" s="4" t="s">
+        <v>109.44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="14">
         <v>232</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="15">
         <v>580</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="15">
         <v>320</v>
       </c>
       <c r="H79" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="2:8">
+      <c r="B80" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="14">
         <v>720</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="15">
         <v>1800</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="15">
         <v>1002</v>
       </c>
       <c r="H80" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="8:8">
       <c r="H81" s="2">
         <f t="shared" ref="H81:H141" si="3">(F81*0.93-E81)*0.95</f>
         <v>0</v>
@@ -4083,337 +4695,337 @@
       <c r="A82" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="15">
         <v>134.4</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="15">
         <v>336</v>
       </c>
-      <c r="G82" s="6"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="2">
         <f t="shared" si="3"/>
-        <v>169.17600000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="B83" s="4" t="s">
+        <v>169.176</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="15">
         <v>24.8</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="15">
         <v>62</v>
       </c>
-      <c r="G83" s="6"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="2">
         <f t="shared" si="3"/>
-        <v>31.216999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" s="4" t="s">
+        <v>31.217</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="15">
         <v>42.8</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="15">
         <v>107</v>
       </c>
-      <c r="G84" s="6"/>
+      <c r="G84" s="15"/>
       <c r="H84" s="2">
         <f t="shared" si="3"/>
-        <v>53.874500000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" s="4" t="s">
+        <v>53.8745</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="15">
         <v>22.8</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="15">
         <v>57</v>
       </c>
-      <c r="G85" s="6"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="2">
         <f t="shared" si="3"/>
-        <v>28.699500000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="B86" s="4" t="s">
+        <v>28.6995</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="15">
         <v>18</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="15">
         <v>45</v>
       </c>
-      <c r="G86" s="6"/>
+      <c r="G86" s="15"/>
       <c r="H86" s="2">
         <f t="shared" si="3"/>
-        <v>22.657499999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="B87" s="4" t="s">
+        <v>22.6575</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="15">
         <v>18</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="15">
         <v>45</v>
       </c>
-      <c r="G87" s="6"/>
+      <c r="G87" s="15"/>
       <c r="H87" s="2">
         <f t="shared" si="3"/>
-        <v>22.657499999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" s="4" t="s">
+        <v>22.6575</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="15">
         <v>15.2</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="15">
         <v>38</v>
       </c>
-      <c r="G88" s="6"/>
+      <c r="G88" s="15"/>
       <c r="H88" s="2">
         <f t="shared" si="3"/>
-        <v>19.133000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="B89" s="4" t="s">
+        <v>19.133</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="13">
         <v>310</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="15">
         <v>698</v>
       </c>
-      <c r="G89" s="6"/>
+      <c r="G89" s="15"/>
       <c r="H89" s="2">
         <f t="shared" si="3"/>
-        <v>322.18299999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" s="4" t="s">
+        <v>322.183</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="13">
         <v>30</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="15">
         <v>58</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="15"/>
       <c r="H90" s="2">
         <f t="shared" si="3"/>
-        <v>22.743000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" s="4" t="s">
+        <v>22.743</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="13">
         <v>18</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="15">
         <v>36</v>
       </c>
-      <c r="G91" s="6"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="2">
         <f t="shared" si="3"/>
-        <v>14.706000000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" s="4" t="s">
+        <v>14.706</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="13">
         <v>9</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="15">
         <v>20</v>
       </c>
-      <c r="G92" s="6"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="2">
         <f t="shared" si="3"/>
-        <v>9.120000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" s="4" t="s">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="13">
         <v>26</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="15">
         <v>46</v>
       </c>
-      <c r="G93" s="6"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="2">
         <f t="shared" si="3"/>
-        <v>15.941000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" s="4" t="s">
+        <v>15.941</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="15">
         <v>20</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="15">
         <v>28</v>
       </c>
-      <c r="G94" s="6"/>
+      <c r="G94" s="15"/>
       <c r="H94" s="2">
         <f t="shared" si="3"/>
-        <v>5.7380000000000022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" s="4" t="s">
+        <v>5.738</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="13">
         <v>58</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="15">
         <v>108</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="2">
         <f t="shared" si="3"/>
-        <v>40.318000000000012</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" s="4" t="s">
+        <v>40.318</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="13">
         <v>32</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="15">
         <v>67</v>
       </c>
-      <c r="G96" s="6"/>
+      <c r="G96" s="15"/>
       <c r="H96" s="2">
         <f t="shared" si="3"/>
-        <v>28.794499999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" s="4"/>
+        <v>28.7945</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="13"/>
       <c r="H97" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4423,40 +5035,40 @@
       <c r="A98" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="20">
         <v>38</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="15">
         <v>88</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="3"/>
-        <v>41.648000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" s="13" t="s">
+        <v>41.648</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="24">
         <v>360</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F99" s="24">
         <v>680</v>
       </c>
       <c r="G99" s="2">
@@ -4466,20 +5078,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="B100" s="16" t="s">
+    <row r="100" spans="2:8">
+      <c r="B100" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="15">
         <v>80</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="15">
         <v>280</v>
       </c>
       <c r="G100" s="2">
@@ -4489,104 +5101,104 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="B101" s="16" t="s">
+    <row r="101" spans="2:8">
+      <c r="B101" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="15">
         <v>34</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="15">
         <v>68</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="3"/>
-        <v>27.778000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" s="11" t="s">
+        <v>27.778</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="15">
         <v>35</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="15">
         <v>58</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="3"/>
-        <v>17.993000000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" s="16" t="s">
+        <v>17.993</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="15">
         <v>39</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="15">
         <v>68</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="3"/>
-        <v>23.028000000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" s="4" t="s">
+        <v>23.028</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="15">
         <v>80</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="15">
         <v>128</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="3"/>
-        <v>37.088000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" s="11" t="s">
+        <v>37.088</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="15">
         <v>180</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="15">
         <v>280</v>
       </c>
       <c r="G105" s="2">
@@ -4596,36 +5208,36 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="B106" s="16" t="s">
+    <row r="106" spans="2:8">
+      <c r="B106" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="15">
         <v>50</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="15">
         <v>98</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="3"/>
-        <v>39.082999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" s="17"/>
-      <c r="C107" s="16"/>
+        <v>39.083</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="26"/>
+      <c r="C107" s="25"/>
       <c r="H107" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="8:8">
       <c r="H108" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4652,10 +5264,10 @@
       </c>
       <c r="H109" s="2">
         <f t="shared" si="3"/>
-        <v>44.117999999999995</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>44.118</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
       <c r="B110" s="2" t="s">
         <v>274</v>
       </c>
@@ -4673,10 +5285,10 @@
       </c>
       <c r="H110" s="2">
         <f t="shared" si="3"/>
-        <v>68.058000000000007</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>68.058</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
       <c r="B111" s="2" t="s">
         <v>276</v>
       </c>
@@ -4694,7 +5306,7 @@
         <v>11.647</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="2:8">
       <c r="B112" s="2" t="s">
         <v>278</v>
       </c>
@@ -4712,10 +5324,10 @@
       </c>
       <c r="H112" s="2">
         <f t="shared" si="3"/>
-        <v>12.511500000000002</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12.5115</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
       <c r="B113" s="2" t="s">
         <v>281</v>
       </c>
@@ -4733,10 +5345,10 @@
       </c>
       <c r="H113" s="2">
         <f t="shared" si="3"/>
-        <v>3.4580000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>3.458</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
       <c r="B114" s="2" t="s">
         <v>284</v>
       </c>
@@ -4754,10 +5366,10 @@
       </c>
       <c r="H114" s="2">
         <f t="shared" si="3"/>
-        <v>14.392500000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14.3925</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
       <c r="B115" s="2" t="s">
         <v>287</v>
       </c>
@@ -4772,10 +5384,10 @@
       </c>
       <c r="H115" s="2">
         <f t="shared" si="3"/>
-        <v>2.8443000000000014</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>2.8443</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
       <c r="B116" s="2" t="s">
         <v>289</v>
       </c>
@@ -4790,10 +5402,10 @@
       </c>
       <c r="H116" s="2">
         <f t="shared" si="3"/>
-        <v>3.4200000000000013</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
       <c r="B117" s="2" t="s">
         <v>291</v>
       </c>
@@ -4811,10 +5423,10 @@
       </c>
       <c r="H117" s="2">
         <f t="shared" si="3"/>
-        <v>4.7025000000000006</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>4.7025</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
       <c r="B118" s="2" t="s">
         <v>294</v>
       </c>
@@ -4829,10 +5441,10 @@
       </c>
       <c r="H118" s="2">
         <f t="shared" si="3"/>
-        <v>3.4865000000000013</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>3.4865</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
       <c r="B119" s="2" t="s">
         <v>296</v>
       </c>
@@ -4847,10 +5459,10 @@
       </c>
       <c r="H119" s="2">
         <f t="shared" si="3"/>
-        <v>5.0730000000000031</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>5.073</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
       <c r="B120" s="2" t="s">
         <v>298</v>
       </c>
@@ -4865,10 +5477,10 @@
       </c>
       <c r="H120" s="2">
         <f t="shared" si="3"/>
-        <v>7.1820000000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>7.182</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8">
       <c r="F121" s="2">
         <v>0</v>
       </c>
@@ -4877,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="8:8">
       <c r="H122" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4887,16 +5499,16 @@
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="27">
         <v>120</v>
       </c>
       <c r="F123" s="2">
@@ -4904,20 +5516,20 @@
       </c>
       <c r="H123" s="2">
         <f t="shared" si="3"/>
-        <v>87.438000000000017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="B124" s="18" t="s">
+        <v>87.438</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E124" s="27">
         <v>160</v>
       </c>
       <c r="F124" s="2">
@@ -4925,20 +5537,20 @@
       </c>
       <c r="H124" s="2">
         <f t="shared" si="3"/>
-        <v>112.16649999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="B125" s="18" t="s">
+        <v>112.1665</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E125" s="18">
+      <c r="E125" s="27">
         <v>210</v>
       </c>
       <c r="F125" s="2">
@@ -4946,20 +5558,20 @@
       </c>
       <c r="H125" s="2">
         <f t="shared" si="3"/>
-        <v>153.01649999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="B126" s="18" t="s">
+        <v>153.0165</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="27">
         <v>170</v>
       </c>
       <c r="F126" s="2">
@@ -4967,20 +5579,20 @@
       </c>
       <c r="H126" s="2">
         <f t="shared" si="3"/>
-        <v>117.68599999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" s="18" t="s">
+        <v>117.686</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E127" s="27">
         <v>160</v>
       </c>
       <c r="F127" s="2">
@@ -4988,20 +5600,20 @@
       </c>
       <c r="H127" s="2">
         <f t="shared" si="3"/>
-        <v>121.00149999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="B128" s="18" t="s">
+        <v>121.0015</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="27">
         <v>170</v>
       </c>
       <c r="F128" s="2">
@@ -5009,20 +5621,20 @@
       </c>
       <c r="H128" s="2">
         <f t="shared" si="3"/>
-        <v>125.63749999999999</v>
+        <v>125.6375</v>
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E129" s="27">
         <v>185</v>
       </c>
       <c r="F129" s="2">
@@ -5034,16 +5646,16 @@
       </c>
     </row>
     <row r="130" spans="2:8">
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E130" s="18">
+      <c r="E130" s="27">
         <v>155</v>
       </c>
       <c r="F130" s="2">
@@ -5051,20 +5663,20 @@
       </c>
       <c r="H130" s="2">
         <f t="shared" si="3"/>
-        <v>55.955000000000005</v>
+        <v>55.955</v>
       </c>
     </row>
     <row r="131" spans="2:8">
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D131" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="27">
         <v>155</v>
       </c>
       <c r="F131" s="2">
@@ -5072,20 +5684,20 @@
       </c>
       <c r="H131" s="2">
         <f t="shared" si="3"/>
-        <v>122.21750000000003</v>
+        <v>122.2175</v>
       </c>
     </row>
     <row r="132" spans="2:8">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="27">
         <v>185</v>
       </c>
       <c r="F132" s="2">
@@ -5097,16 +5709,16 @@
       </c>
     </row>
     <row r="133" spans="2:8">
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="27">
         <v>185</v>
       </c>
       <c r="F133" s="2">
@@ -5114,20 +5726,20 @@
       </c>
       <c r="H133" s="2">
         <f t="shared" si="3"/>
-        <v>18.620000000000022</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="134" spans="2:8">
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E134" s="27">
         <v>180</v>
       </c>
       <c r="F134" s="2">
@@ -5135,20 +5747,20 @@
       </c>
       <c r="H134" s="2">
         <f t="shared" si="3"/>
-        <v>115.25399999999999</v>
+        <v>115.254</v>
       </c>
     </row>
     <row r="135" spans="2:8">
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E135" s="27">
         <v>245</v>
       </c>
       <c r="F135" s="2">
@@ -5160,60 +5772,60 @@
       </c>
     </row>
     <row r="136" spans="2:8">
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="D136" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="E136" s="20">
+      <c r="E136" s="29">
         <v>185</v>
       </c>
-      <c r="F136" s="15">
+      <c r="F136" s="24">
         <v>346</v>
       </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15">
+      <c r="G136" s="24"/>
+      <c r="H136" s="24">
         <f t="shared" si="3"/>
-        <v>129.94100000000003</v>
+        <v>129.941</v>
       </c>
     </row>
     <row r="137" spans="2:8">
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="D137" s="21" t="s">
+      <c r="D137" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="E137" s="20">
+      <c r="E137" s="29">
         <v>160</v>
       </c>
-      <c r="F137" s="15">
+      <c r="F137" s="24">
         <v>318</v>
       </c>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15">
+      <c r="G137" s="24"/>
+      <c r="H137" s="24">
         <f t="shared" si="3"/>
         <v>128.953</v>
       </c>
     </row>
     <row r="138" spans="2:8">
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="27">
         <v>220</v>
       </c>
       <c r="F138" s="2">
@@ -5221,20 +5833,20 @@
       </c>
       <c r="H138" s="2">
         <f t="shared" si="3"/>
-        <v>152.35149999999999</v>
+        <v>152.3515</v>
       </c>
     </row>
     <row r="139" spans="2:8">
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="27">
         <v>180</v>
       </c>
       <c r="F139" s="2">
@@ -5242,20 +5854,20 @@
       </c>
       <c r="H139" s="2">
         <f t="shared" si="3"/>
-        <v>155.89500000000001</v>
+        <v>155.895</v>
       </c>
     </row>
     <row r="140" spans="2:8">
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D140" s="19" t="s">
+      <c r="D140" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="27">
         <v>210</v>
       </c>
       <c r="F140" s="2">
@@ -5263,20 +5875,20 @@
       </c>
       <c r="H140" s="2">
         <f t="shared" si="3"/>
-        <v>160.96799999999999</v>
+        <v>160.968</v>
       </c>
     </row>
     <row r="141" spans="2:8">
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D141" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="27">
         <v>170</v>
       </c>
       <c r="F141" s="2">
@@ -5284,7 +5896,7 @@
       </c>
       <c r="H141" s="2">
         <f t="shared" si="3"/>
-        <v>50.540000000000013</v>
+        <v>50.54</v>
       </c>
     </row>
   </sheetData>
@@ -5296,8 +5908,8 @@
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="G44:H45"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/商品上架单.xlsx
+++ b/商品上架单.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LinQin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10350" tabRatio="500"/>
+    <workbookView windowWidth="28080" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
   <si>
     <t>产品编号</t>
   </si>
@@ -48,7 +43,7 @@
     <t>未添加</t>
   </si>
   <si>
-    <t>名草汇</t>
+    <t>ssdfsdfsdf</t>
   </si>
   <si>
     <t>20170327MCH002</t>
@@ -85,9 +80,6 @@
   </si>
   <si>
     <t>0.35kg/2只/箱</t>
-  </si>
-  <si>
-    <t>20170327MCH001</t>
   </si>
   <si>
     <t>宁波水磨年糕</t>
@@ -950,7 +942,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -968,7 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72537</t>
     </r>
@@ -1000,7 +992,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1018,7 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72419</t>
     </r>
@@ -1041,7 +1033,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1059,7 +1051,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72453</t>
     </r>
@@ -1091,7 +1083,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72536</t>
     </r>
@@ -1114,7 +1106,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1132,7 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72535</t>
     </r>
@@ -1164,7 +1156,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>V</t>
     </r>
@@ -1182,7 +1174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72533</t>
     </r>
@@ -1205,7 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1223,7 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>T</t>
     </r>
@@ -1241,7 +1233,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1259,7 +1251,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1277,7 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72530</t>
     </r>
@@ -1309,7 +1301,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1327,7 +1319,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1345,7 +1337,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72529</t>
     </r>
@@ -1368,7 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1386,7 +1378,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72528</t>
     </r>
@@ -1409,7 +1401,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1427,7 +1419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72525</t>
     </r>
@@ -1451,7 +1443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1471,7 +1463,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72526</t>
     </r>
@@ -1505,7 +1497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1525,7 +1517,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1545,7 +1537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72520</t>
     </r>
@@ -1569,7 +1561,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1589,7 +1581,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>72198</t>
     </r>
@@ -1613,7 +1605,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2017</t>
     </r>
@@ -1633,7 +1625,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -1653,7 +1645,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>61820</t>
     </r>
@@ -1686,8 +1678,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1787,19 +1785,170 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1812,7 +1961,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1826,7 +1975,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1835,13 +1984,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1854,8 +1998,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1863,11 +2193,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1875,6 +2447,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,50 +2531,59 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2236,1498 +2844,1497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.8740740740741" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="17.7481481481481" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.8740740740741" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.1259259259259" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.8740740740741" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.3777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.3777777777778" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.25185185185185" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.8740740740741" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="4">
         <v>48</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="4">
         <v>70</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="4">
         <v>20</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="4">
         <v>20</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="4">
         <v>18</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="4">
         <v>32</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="4">
         <v>13</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="4">
         <v>13</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="4">
         <v>18</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="4">
         <v>32</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="4">
         <v>13</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="4">
         <v>95</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="4">
         <v>120</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="4">
         <v>20</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="4">
         <v>20</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="4">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:I78" si="0">(F6*0.93-E6)*0.95</f>
+        <v>10.507</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="23">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4">
+        <v>70</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="23">
-        <v>42</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23">
-        <f t="shared" ref="H6:I78" si="0">(F6*0.93-E6)*0.95</f>
-        <v>10.507000000000001</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="23">
-        <v>48</v>
-      </c>
-      <c r="F7" s="23">
-        <v>70</v>
-      </c>
-      <c r="G7" s="23">
-        <v>20</v>
-      </c>
-      <c r="H7" s="23">
-        <v>20</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="E8" s="4">
         <v>150</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="4">
         <v>250</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>78.375</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="5">
+        <v>150</v>
+      </c>
+      <c r="F9" s="6">
+        <v>290</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>113.715</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="24">
-        <v>150</v>
-      </c>
-      <c r="F9" s="25">
-        <v>290</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23">
-        <f t="shared" si="0"/>
-        <v>113.71499999999999</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="E10" s="5">
         <v>60</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="6">
         <v>120</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23">
+      <c r="G10" s="6"/>
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>49.02</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="E11" s="7">
         <v>50</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="8">
         <v>120</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="23">
+      <c r="G11" s="8"/>
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7">
         <v>50</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="8">
         <v>120</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="23">
+      <c r="G12" s="8"/>
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>58.52</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="E13" s="9">
+        <v>190</v>
+      </c>
+      <c r="F13" s="4">
+        <v>350</v>
+      </c>
+      <c r="G13" s="4">
+        <v>140</v>
+      </c>
+      <c r="H13" s="4">
+        <v>140</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="28">
-        <v>190</v>
-      </c>
-      <c r="F13" s="23">
-        <v>350</v>
-      </c>
-      <c r="G13" s="23">
-        <v>140</v>
-      </c>
-      <c r="H13" s="23">
-        <v>140</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="28">
+      <c r="E14" s="9">
         <v>320</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="4">
         <v>620</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>243.77</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="D15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E15" s="7">
+        <v>220</v>
+      </c>
+      <c r="F15" s="8">
+        <v>420</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>162.07</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="26">
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="9">
+        <v>180</v>
+      </c>
+      <c r="F16" s="4">
+        <v>290</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>85.215</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7">
+        <v>110</v>
+      </c>
+      <c r="F17" s="8">
         <v>220</v>
       </c>
-      <c r="F15" s="27">
-        <v>420</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="23">
+      <c r="G17" s="8"/>
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>162.07000000000002</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="28">
-        <v>180</v>
-      </c>
-      <c r="F16" s="23">
-        <v>290</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+        <v>89.87</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7">
+        <v>380</v>
+      </c>
+      <c r="F18" s="8">
+        <v>880</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>85.214999999999989</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="26">
-        <v>110</v>
-      </c>
-      <c r="F17" s="27">
+        <v>416.48</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="7">
+        <v>310</v>
+      </c>
+      <c r="F19" s="8">
+        <v>680</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>306.28</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7">
         <v>220</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="23">
-        <f t="shared" si="0"/>
-        <v>89.870000000000019</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="26">
-        <v>380</v>
-      </c>
-      <c r="F18" s="27">
-        <v>880</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="23">
-        <f t="shared" si="0"/>
-        <v>416.48000000000008</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="26">
-        <v>310</v>
-      </c>
-      <c r="F19" s="27">
-        <v>680</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="23">
-        <f t="shared" si="0"/>
-        <v>306.27999999999997</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="26">
-        <v>220</v>
-      </c>
-      <c r="F20" s="27">
+      <c r="F20" s="8">
         <v>480</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="23">
+      <c r="G20" s="8"/>
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>215.08</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7">
+        <v>160</v>
+      </c>
+      <c r="F21" s="8">
+        <v>320</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>130.72</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="26">
-        <v>160</v>
-      </c>
-      <c r="F21" s="27">
+      <c r="C22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="9">
+        <v>360</v>
+      </c>
+      <c r="F22" s="4">
+        <v>720</v>
+      </c>
+      <c r="G22" s="4">
         <v>320</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="23">
+      <c r="H22" s="4">
+        <v>320</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="7">
+        <v>140</v>
+      </c>
+      <c r="F23" s="8">
+        <v>320</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
-        <v>130.72000000000003</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="28">
-        <v>360</v>
-      </c>
-      <c r="F22" s="23">
-        <v>720</v>
-      </c>
-      <c r="G22" s="23">
-        <v>320</v>
-      </c>
-      <c r="H22" s="23">
-        <v>320</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="26" t="s">
+        <v>149.72</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="26">
-        <v>140</v>
-      </c>
-      <c r="F23" s="27">
-        <v>320</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="23">
+      <c r="C24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="7">
+        <v>280</v>
+      </c>
+      <c r="F24" s="8">
+        <v>420</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>149.72000000000003</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="26">
-        <v>280</v>
-      </c>
-      <c r="F24" s="27">
-        <v>420</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="23">
-        <f t="shared" si="0"/>
-        <v>105.07000000000002</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+        <v>105.07</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="C28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="D28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="4">
+        <v>180</v>
+      </c>
+      <c r="F28" s="4">
+        <v>360</v>
+      </c>
+      <c r="G28" s="4">
+        <v>162</v>
+      </c>
+      <c r="H28" s="4">
+        <v>162</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="23">
+      <c r="C29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="4">
         <v>180</v>
       </c>
-      <c r="F28" s="23">
-        <v>360</v>
-      </c>
-      <c r="G28" s="23">
-        <v>162</v>
-      </c>
-      <c r="H28" s="23">
-        <v>162</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="23">
-        <v>25</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="23" t="s">
+      <c r="F29" s="4">
+        <v>464</v>
+      </c>
+      <c r="G29" s="4">
+        <v>250</v>
+      </c>
+      <c r="H29" s="4">
+        <v>250</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="23">
-        <v>180</v>
-      </c>
-      <c r="F29" s="23">
-        <v>464</v>
-      </c>
-      <c r="G29" s="23">
-        <v>250</v>
-      </c>
-      <c r="H29" s="23">
-        <v>250</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23" t="s">
+      <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="D30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="E30" s="4">
+        <v>168</v>
+      </c>
+      <c r="F30" s="4">
+        <v>400</v>
+      </c>
+      <c r="G30" s="4">
+        <v>224</v>
+      </c>
+      <c r="H30" s="4">
+        <v>224</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="23">
-        <v>168</v>
-      </c>
-      <c r="F30" s="23">
-        <v>400</v>
-      </c>
-      <c r="G30" s="23">
-        <v>224</v>
-      </c>
-      <c r="H30" s="23">
-        <v>224</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23" t="s">
+      <c r="C31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="D31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="E31" s="4">
+        <v>98</v>
+      </c>
+      <c r="F31" s="4">
+        <v>156.8</v>
+      </c>
+      <c r="G31" s="4">
+        <v>55</v>
+      </c>
+      <c r="H31" s="4">
+        <v>55</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="23">
+      <c r="C32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="4">
+        <v>134</v>
+      </c>
+      <c r="F32" s="4">
+        <v>222</v>
+      </c>
+      <c r="G32" s="4">
+        <v>82</v>
+      </c>
+      <c r="H32" s="4">
+        <v>82</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="4">
+        <v>84</v>
+      </c>
+      <c r="F33" s="4">
+        <v>135</v>
+      </c>
+      <c r="G33" s="4">
+        <v>48</v>
+      </c>
+      <c r="H33" s="4">
+        <v>48</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="4">
+        <v>96</v>
+      </c>
+      <c r="F34" s="4">
+        <v>280</v>
+      </c>
+      <c r="G34" s="4">
+        <v>170</v>
+      </c>
+      <c r="H34" s="4">
+        <v>170</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="4">
+        <v>68</v>
+      </c>
+      <c r="F35" s="4">
+        <v>209</v>
+      </c>
+      <c r="G35" s="4">
+        <v>134</v>
+      </c>
+      <c r="H35" s="4">
+        <v>134</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="23">
-        <v>156.80000000000001</v>
-      </c>
-      <c r="G31" s="23">
-        <v>55</v>
-      </c>
-      <c r="H31" s="23">
-        <v>55</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="23">
-        <v>134</v>
-      </c>
-      <c r="F32" s="23">
-        <v>222</v>
-      </c>
-      <c r="G32" s="23">
-        <v>82</v>
-      </c>
-      <c r="H32" s="23">
-        <v>82</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="23">
-        <v>84</v>
-      </c>
-      <c r="F33" s="23">
-        <v>135</v>
-      </c>
-      <c r="G33" s="23">
-        <v>48</v>
-      </c>
-      <c r="H33" s="23">
-        <v>48</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="E36" s="4">
+        <v>118</v>
+      </c>
+      <c r="F36" s="4">
+        <v>347</v>
+      </c>
+      <c r="G36" s="4">
+        <v>215</v>
+      </c>
+      <c r="H36" s="4">
+        <v>215</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="23">
-        <v>96</v>
-      </c>
-      <c r="F34" s="23">
-        <v>280</v>
-      </c>
-      <c r="G34" s="23">
-        <v>170</v>
-      </c>
-      <c r="H34" s="23">
-        <v>170</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="25" t="s">
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4"/>
+      <c r="B37" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="23">
-        <v>68</v>
-      </c>
-      <c r="F35" s="23">
-        <v>209</v>
-      </c>
-      <c r="G35" s="23">
-        <v>134</v>
-      </c>
-      <c r="H35" s="23">
-        <v>134</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="23">
-        <v>118</v>
-      </c>
-      <c r="F36" s="23">
-        <v>347</v>
-      </c>
-      <c r="G36" s="23">
-        <v>215</v>
-      </c>
-      <c r="H36" s="23">
-        <v>215</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="23"/>
-      <c r="B37" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="27">
+      <c r="E37" s="8">
         <v>78</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="8">
         <v>228</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="4">
         <v>142</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="4">
         <v>142</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23" t="s">
-        <v>93</v>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="23"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
-        <v>93</v>
+      <c r="A38" s="4"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="C40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="D40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="E40" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="F40" s="4">
+        <v>111</v>
+      </c>
+      <c r="G40" s="4">
+        <v>38</v>
+      </c>
+      <c r="H40" s="4">
+        <v>38</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="23">
-        <v>69.8</v>
-      </c>
-      <c r="F40" s="23">
+      <c r="C41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="4">
+        <v>67</v>
+      </c>
+      <c r="F41" s="4">
+        <v>107</v>
+      </c>
+      <c r="G41" s="4">
+        <v>38</v>
+      </c>
+      <c r="H41" s="4">
+        <v>38</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="4">
+        <v>100</v>
+      </c>
+      <c r="F42" s="4">
+        <v>160</v>
+      </c>
+      <c r="G42" s="4">
+        <v>57</v>
+      </c>
+      <c r="H42" s="4">
+        <v>57</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="23">
-        <v>38</v>
-      </c>
-      <c r="H40" s="23">
-        <v>38</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="23">
-        <v>67</v>
-      </c>
-      <c r="F41" s="23">
-        <v>107</v>
-      </c>
-      <c r="G41" s="23">
-        <v>38</v>
-      </c>
-      <c r="H41" s="23">
-        <v>38</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="C43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="4">
+        <v>140</v>
+      </c>
+      <c r="F43" s="4">
+        <v>180</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <v>27</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="4">
+        <v>160</v>
+      </c>
+      <c r="F44" s="4">
+        <v>240</v>
+      </c>
+      <c r="G44" s="11">
+        <v>150</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="4">
+        <v>160</v>
+      </c>
+      <c r="F45" s="4">
+        <v>240</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="4">
+        <v>80</v>
+      </c>
+      <c r="F46" s="4">
         <v>100</v>
       </c>
-      <c r="F42" s="23">
-        <v>160</v>
-      </c>
-      <c r="G42" s="23">
-        <v>57</v>
-      </c>
-      <c r="H42" s="23">
-        <v>57</v>
-      </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="23">
+      <c r="G46" s="4">
+        <v>18</v>
+      </c>
+      <c r="H46" s="4">
+        <v>18</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="4">
+        <v>195</v>
+      </c>
+      <c r="F47" s="4">
+        <v>280</v>
+      </c>
+      <c r="G47" s="4">
+        <v>80</v>
+      </c>
+      <c r="H47" s="4">
+        <v>80</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="4">
+        <v>295</v>
+      </c>
+      <c r="F48" s="4">
+        <v>480</v>
+      </c>
+      <c r="G48" s="4">
+        <v>175</v>
+      </c>
+      <c r="H48" s="4">
+        <v>175</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="4">
+        <v>70</v>
+      </c>
+      <c r="F49" s="4">
+        <v>120</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
+        <f t="shared" ref="H49:H55" si="1">(F49*0.93-E49)*0.95</f>
+        <v>39.52</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="4">
+        <v>40</v>
+      </c>
+      <c r="F50" s="4">
+        <v>70</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
+        <f t="shared" si="1"/>
+        <v>23.845</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="4">
+        <v>350</v>
+      </c>
+      <c r="F51" s="4">
+        <v>596</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
+        <f t="shared" si="1"/>
+        <v>194.066</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="4">
+        <v>198</v>
+      </c>
+      <c r="F52" s="4">
+        <v>328</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
+        <f t="shared" si="1"/>
+        <v>101.688</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="4">
+        <v>290</v>
+      </c>
+      <c r="F53" s="4">
+        <v>380</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
+        <f t="shared" si="1"/>
+        <v>60.23</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="23">
-        <v>180</v>
-      </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23">
-        <v>27</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="23">
-        <v>160</v>
-      </c>
-      <c r="F44" s="23">
-        <v>240</v>
-      </c>
-      <c r="G44" s="30">
-        <v>150</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="23">
-        <v>160</v>
-      </c>
-      <c r="F45" s="23">
-        <v>240</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="23">
-        <v>80</v>
-      </c>
-      <c r="F46" s="23">
-        <v>100</v>
-      </c>
-      <c r="G46" s="23">
-        <v>18</v>
-      </c>
-      <c r="H46" s="23">
-        <v>18</v>
-      </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="23">
-        <v>195</v>
-      </c>
-      <c r="F47" s="23">
-        <v>280</v>
-      </c>
-      <c r="G47" s="23">
-        <v>80</v>
-      </c>
-      <c r="H47" s="23">
-        <v>80</v>
-      </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="23">
-        <v>295</v>
-      </c>
-      <c r="F48" s="23">
-        <v>480</v>
-      </c>
-      <c r="G48" s="23">
-        <v>175</v>
-      </c>
-      <c r="H48" s="23">
-        <v>175</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="23">
-        <v>70</v>
-      </c>
-      <c r="F49" s="23">
-        <v>120</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23">
-        <f t="shared" ref="H49:H55" si="1">(F49*0.93-E49)*0.95</f>
-        <v>39.520000000000003</v>
-      </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="23">
-        <v>40</v>
-      </c>
-      <c r="F50" s="23">
-        <v>70</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23">
-        <f t="shared" si="1"/>
-        <v>23.845000000000006</v>
-      </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="23">
-        <v>350</v>
-      </c>
-      <c r="F51" s="23">
-        <v>596</v>
-      </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23">
-        <f t="shared" si="1"/>
-        <v>194.06599999999997</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="23">
-        <v>198</v>
-      </c>
-      <c r="F52" s="23">
-        <v>328</v>
-      </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23">
-        <f t="shared" si="1"/>
-        <v>101.68800000000002</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="23">
-        <v>290</v>
-      </c>
-      <c r="F53" s="23">
-        <v>380</v>
-      </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23">
-        <f t="shared" si="1"/>
-        <v>60.230000000000032</v>
-      </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23" t="s">
+      <c r="C54" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="D54" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="23">
+      <c r="E54" s="4">
         <v>220</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="4">
         <v>360</v>
       </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <f t="shared" si="1"/>
         <v>109.06</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="D55" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="E55" s="4">
+        <v>60</v>
+      </c>
+      <c r="F55" s="4">
+        <v>90</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
+        <f t="shared" si="1"/>
+        <v>22.515</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="31">
-        <v>60</v>
-      </c>
-      <c r="F55" s="31">
-        <v>90</v>
-      </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="31">
-        <f t="shared" si="1"/>
-        <v>22.515000000000001</v>
-      </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23" t="s">
+      <c r="C57" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="D57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="E57" s="4">
+        <v>98</v>
+      </c>
+      <c r="F57" s="4">
+        <v>120</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4">
+        <f t="shared" ref="H57:H59" si="2">(F57*0.93-E57)*0.95</f>
+        <v>12.92</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="23">
+      <c r="C58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="4">
+        <v>160</v>
+      </c>
+      <c r="F58" s="4">
+        <v>220</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
+        <f t="shared" si="2"/>
+        <v>42.37</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="4">
         <v>98</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F59" s="4">
         <v>120</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23">
-        <f t="shared" ref="H57:H59" si="2">(F57*0.93-E57)*0.95</f>
-        <v>12.920000000000007</v>
-      </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="23">
-        <v>160</v>
-      </c>
-      <c r="F58" s="23">
-        <v>220</v>
-      </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
         <f t="shared" si="2"/>
-        <v>42.370000000000019</v>
-      </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="23">
-        <v>98</v>
-      </c>
-      <c r="F59" s="23">
-        <v>120</v>
-      </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23">
-        <f t="shared" si="2"/>
-        <v>12.920000000000007</v>
-      </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="63" spans="1:10">
+        <v>12.92</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="63" spans="9:9">
       <c r="I63" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E64" s="2">
         <v>116</v>
@@ -3737,18 +4344,18 @@
       </c>
       <c r="H64" s="2">
         <f t="shared" si="0"/>
-        <v>545.35700000000008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>545.357</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E65" s="2">
         <v>164</v>
@@ -3761,15 +4368,15 @@
         <v>771.875</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="2:8">
       <c r="B66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="2">
         <v>116</v>
@@ -3779,18 +4386,18 @@
       </c>
       <c r="H66" s="2">
         <f t="shared" si="0"/>
-        <v>545.35700000000008</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" s="3" t="s">
+        <v>545.357</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E67" s="2">
         <v>60</v>
@@ -3800,18 +4407,18 @@
       </c>
       <c r="H67" s="2">
         <f t="shared" si="0"/>
-        <v>282.26400000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>282.264</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E68" s="2">
         <v>60</v>
@@ -3821,18 +4428,18 @@
       </c>
       <c r="H68" s="2">
         <f t="shared" si="0"/>
-        <v>282.26400000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>282.264</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E69" s="2">
         <v>60</v>
@@ -3842,18 +4449,18 @@
       </c>
       <c r="H69" s="2">
         <f t="shared" si="0"/>
-        <v>282.26400000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>282.264</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E70" s="2">
         <v>42</v>
@@ -3863,18 +4470,18 @@
       </c>
       <c r="H70" s="2">
         <f t="shared" si="0"/>
-        <v>197.76150000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>197.7615</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E71" s="2">
         <v>35</v>
@@ -3884,18 +4491,18 @@
       </c>
       <c r="H71" s="2">
         <f t="shared" si="0"/>
-        <v>164.65400000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>164.654</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E72" s="2">
         <v>288</v>
@@ -3905,18 +4512,18 @@
       </c>
       <c r="H72" s="2">
         <f t="shared" si="0"/>
-        <v>843.14399999999989</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" s="4" t="s">
+        <v>843.144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E73" s="2">
         <v>220</v>
@@ -3926,18 +4533,18 @@
       </c>
       <c r="H73" s="2">
         <f t="shared" si="0"/>
-        <v>73.720000000000013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" s="4" t="s">
+        <v>73.72</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="2">
         <v>120</v>
@@ -3947,10 +4554,10 @@
       </c>
       <c r="H74" s="2">
         <f t="shared" si="0"/>
-        <v>80.370000000000019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
       <c r="H75" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3958,122 +4565,122 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="5">
+      <c r="E76" s="14">
         <v>192</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="15">
         <v>480</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="15">
         <v>260</v>
       </c>
       <c r="H76" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="2:8">
+      <c r="B77" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="5">
+      <c r="E77" s="14">
         <v>162</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="15">
         <v>360</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="15">
         <v>180</v>
       </c>
       <c r="H77" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="B78" s="4" t="s">
+    <row r="78" spans="2:8">
+      <c r="B78" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="5">
+      <c r="E78" s="14">
         <v>108</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="15">
         <v>240</v>
       </c>
-      <c r="G78" s="6"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="2">
         <f t="shared" si="0"/>
-        <v>109.44000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" s="4" t="s">
+        <v>109.44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E79" s="5">
+      <c r="E79" s="14">
         <v>232</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="15">
         <v>580</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="15">
         <v>320</v>
       </c>
       <c r="H79" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="B80" s="4" t="s">
+    <row r="80" spans="2:8">
+      <c r="B80" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E80" s="5">
+      <c r="E80" s="14">
         <v>720</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="15">
         <v>1800</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="15">
         <v>1002</v>
       </c>
       <c r="H80" s="2">
         <v>1002</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="8:8">
       <c r="H81" s="2">
         <f t="shared" ref="H81:H141" si="3">(F81*0.93-E81)*0.95</f>
         <v>0</v>
@@ -4081,339 +4688,339 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="D82" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="E82" s="15">
         <v>134.4</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="15">
         <v>336</v>
       </c>
-      <c r="G82" s="6"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="2">
         <f t="shared" si="3"/>
-        <v>169.17600000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="B83" s="4" t="s">
+        <v>169.176</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="D83" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="6">
+      <c r="E83" s="15">
         <v>24.8</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="15">
         <v>62</v>
       </c>
-      <c r="G83" s="6"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="2">
         <f t="shared" si="3"/>
-        <v>31.216999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" s="4" t="s">
+        <v>31.217</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="D84" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E84" s="6">
+      <c r="E84" s="15">
         <v>42.8</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="15">
         <v>107</v>
       </c>
-      <c r="G84" s="6"/>
+      <c r="G84" s="15"/>
       <c r="H84" s="2">
         <f t="shared" si="3"/>
-        <v>53.874500000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" s="4" t="s">
+        <v>53.8745</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="D85" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E85" s="6">
+      <c r="E85" s="15">
         <v>22.8</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="15">
         <v>57</v>
       </c>
-      <c r="G85" s="6"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="2">
         <f t="shared" si="3"/>
-        <v>28.699500000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="B86" s="4" t="s">
+        <v>28.6995</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="D86" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="6">
+      <c r="E86" s="15">
         <v>18</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="15">
         <v>45</v>
       </c>
-      <c r="G86" s="6"/>
+      <c r="G86" s="15"/>
       <c r="H86" s="2">
         <f t="shared" si="3"/>
-        <v>22.657499999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="B87" s="4" t="s">
+        <v>22.6575</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="D87" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E87" s="6">
+      <c r="E87" s="15">
         <v>18</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="15">
         <v>45</v>
       </c>
-      <c r="G87" s="6"/>
+      <c r="G87" s="15"/>
       <c r="H87" s="2">
         <f t="shared" si="3"/>
-        <v>22.657499999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" s="4" t="s">
+        <v>22.6575</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88" s="6">
+      <c r="D88" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88" s="15">
         <v>15.2</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="15">
         <v>38</v>
       </c>
-      <c r="G88" s="6"/>
+      <c r="G88" s="15"/>
       <c r="H88" s="2">
         <f t="shared" si="3"/>
-        <v>19.133000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="B89" s="4" t="s">
+        <v>19.133</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E89" s="4">
+      <c r="E89" s="13">
         <v>310</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="15">
         <v>698</v>
       </c>
-      <c r="G89" s="6"/>
+      <c r="G89" s="15"/>
       <c r="H89" s="2">
         <f t="shared" si="3"/>
-        <v>322.18299999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" s="4" t="s">
+        <v>322.183</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E90" s="4">
+      <c r="E90" s="13">
         <v>30</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="15">
         <v>58</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="15"/>
       <c r="H90" s="2">
         <f t="shared" si="3"/>
-        <v>22.743000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" s="4" t="s">
+        <v>22.743</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="D91" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="E91" s="13">
         <v>18</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="15">
         <v>36</v>
       </c>
-      <c r="G91" s="6"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="2">
         <f t="shared" si="3"/>
-        <v>14.706000000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" s="4" t="s">
+        <v>14.706</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="D92" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="E92" s="13">
         <v>9</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="15">
         <v>20</v>
       </c>
-      <c r="G92" s="6"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="2">
         <f t="shared" si="3"/>
-        <v>9.120000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" s="4" t="s">
+        <v>9.12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="D93" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E93" s="4">
+      <c r="E93" s="13">
         <v>26</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="15">
         <v>46</v>
       </c>
-      <c r="G93" s="6"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="2">
         <f t="shared" si="3"/>
-        <v>15.941000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" s="4" t="s">
+        <v>15.941</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E94" s="6">
+      <c r="E94" s="15">
         <v>20</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="15">
         <v>28</v>
       </c>
-      <c r="G94" s="6"/>
+      <c r="G94" s="15"/>
       <c r="H94" s="2">
         <f t="shared" si="3"/>
-        <v>5.7380000000000022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" s="4" t="s">
+        <v>5.738</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="D95" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E95" s="4">
+      <c r="E95" s="13">
         <v>58</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="15">
         <v>108</v>
       </c>
-      <c r="G95" s="6"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="2">
         <f t="shared" si="3"/>
-        <v>40.318000000000012</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" s="4" t="s">
+        <v>40.318</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="D96" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E96" s="4">
+      <c r="E96" s="13">
         <v>32</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="15">
         <v>67</v>
       </c>
-      <c r="G96" s="6"/>
+      <c r="G96" s="15"/>
       <c r="H96" s="2">
         <f t="shared" si="3"/>
-        <v>28.794499999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" s="4"/>
+        <v>28.7945</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="13"/>
       <c r="H97" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4421,42 +5028,42 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="11">
+      <c r="D98" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="20">
         <v>38</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="15">
         <v>88</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="3"/>
-        <v>41.648000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" s="13" t="s">
+        <v>41.648</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" s="15">
+      <c r="D99" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="24">
         <v>360</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F99" s="24">
         <v>680</v>
       </c>
       <c r="G99" s="2">
@@ -4466,20 +5073,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="B100" s="16" t="s">
+    <row r="100" spans="2:8">
+      <c r="B100" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="6">
+      <c r="D100" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="15">
         <v>80</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="15">
         <v>280</v>
       </c>
       <c r="G100" s="2">
@@ -4489,104 +5096,104 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="B101" s="16" t="s">
+    <row r="101" spans="2:8">
+      <c r="B101" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101" s="6">
+      <c r="D101" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" s="15">
         <v>34</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="15">
         <v>68</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="3"/>
-        <v>27.778000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" s="11" t="s">
+        <v>27.778</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E102" s="6">
+      <c r="D102" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="15">
         <v>35</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="15">
         <v>58</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="3"/>
-        <v>17.993000000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" s="16" t="s">
+        <v>17.993</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C103" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E103" s="6">
+      <c r="D103" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" s="15">
         <v>39</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="15">
         <v>68</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="3"/>
-        <v>23.028000000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" s="4" t="s">
+        <v>23.028</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E104" s="6">
+      <c r="E104" s="15">
         <v>80</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="15">
         <v>128</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="3"/>
-        <v>37.088000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" s="11" t="s">
+        <v>37.088</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="D105" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E105" s="6">
+      <c r="E105" s="15">
         <v>180</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="15">
         <v>280</v>
       </c>
       <c r="G105" s="2">
@@ -4596,36 +5203,36 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="B106" s="16" t="s">
+    <row r="106" spans="2:8">
+      <c r="B106" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="D106" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E106" s="6">
+      <c r="E106" s="15">
         <v>50</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="15">
         <v>98</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="3"/>
-        <v>39.082999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" s="17"/>
-      <c r="C107" s="16"/>
+        <v>39.083</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="26"/>
+      <c r="C107" s="25"/>
       <c r="H107" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="8:8">
       <c r="H108" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4633,16 +5240,16 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E109" s="2">
         <v>16.8</v>
@@ -4652,18 +5259,18 @@
       </c>
       <c r="H109" s="2">
         <f t="shared" si="3"/>
-        <v>44.117999999999995</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>44.118</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
       <c r="B110" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E110" s="2">
         <v>28.8</v>
@@ -4673,15 +5280,15 @@
       </c>
       <c r="H110" s="2">
         <f t="shared" si="3"/>
-        <v>68.058000000000007</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>68.058</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
       <c r="B111" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E111" s="2">
         <v>17.5</v>
@@ -4694,15 +5301,15 @@
         <v>11.647</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="2:8">
       <c r="B112" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E112" s="2">
         <v>13.8</v>
@@ -4712,18 +5319,18 @@
       </c>
       <c r="H112" s="2">
         <f t="shared" si="3"/>
-        <v>12.511500000000002</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12.5115</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
       <c r="B113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E113" s="2">
         <v>3.8</v>
@@ -4733,18 +5340,18 @@
       </c>
       <c r="H113" s="2">
         <f t="shared" si="3"/>
-        <v>3.4580000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>3.458</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
       <c r="B114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="E114" s="2">
         <v>26.7</v>
@@ -4754,15 +5361,15 @@
       </c>
       <c r="H114" s="2">
         <f t="shared" si="3"/>
-        <v>14.392500000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14.3925</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
       <c r="B115" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="E115" s="2">
         <v>11.7</v>
@@ -4772,15 +5379,15 @@
       </c>
       <c r="H115" s="2">
         <f t="shared" si="3"/>
-        <v>2.8443000000000014</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>2.8443</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
       <c r="B116" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E116" s="2">
         <v>15</v>
@@ -4790,18 +5397,18 @@
       </c>
       <c r="H116" s="2">
         <f t="shared" si="3"/>
-        <v>3.4200000000000013</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
       <c r="B117" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="E117" s="2">
         <v>9</v>
@@ -4811,15 +5418,15 @@
       </c>
       <c r="H117" s="2">
         <f t="shared" si="3"/>
-        <v>4.7025000000000006</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>4.7025</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
       <c r="B118" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="E118" s="2">
         <v>14</v>
@@ -4829,15 +5436,15 @@
       </c>
       <c r="H118" s="2">
         <f t="shared" si="3"/>
-        <v>3.4865000000000013</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>3.4865</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
       <c r="B119" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E119" s="2">
         <v>30</v>
@@ -4847,15 +5454,15 @@
       </c>
       <c r="H119" s="2">
         <f t="shared" si="3"/>
-        <v>5.0730000000000031</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>5.073</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
       <c r="B120" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E120" s="2">
         <v>3.6</v>
@@ -4865,10 +5472,10 @@
       </c>
       <c r="H120" s="2">
         <f t="shared" si="3"/>
-        <v>7.1820000000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>7.182</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8">
       <c r="F121" s="2">
         <v>0</v>
       </c>
@@ -4877,26 +5484,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="8:8">
       <c r="H122" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" ht="15.75" spans="1:8">
       <c r="A123" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B123" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="C123" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="D123" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E123" s="18">
+      <c r="E123" s="27">
         <v>120</v>
       </c>
       <c r="F123" s="2">
@@ -4904,20 +5511,20 @@
       </c>
       <c r="H123" s="2">
         <f t="shared" si="3"/>
-        <v>87.438000000000017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="B124" s="18" t="s">
+        <v>87.438</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" spans="2:8">
+      <c r="B124" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="C124" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E124" s="18">
+      <c r="D124" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E124" s="27">
         <v>160</v>
       </c>
       <c r="F124" s="2">
@@ -4925,20 +5532,20 @@
       </c>
       <c r="H124" s="2">
         <f t="shared" si="3"/>
-        <v>112.16649999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="B125" s="18" t="s">
+        <v>112.1665</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="2:8">
+      <c r="B125" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C125" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C125" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E125" s="18">
+      <c r="D125" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" s="27">
         <v>210</v>
       </c>
       <c r="F125" s="2">
@@ -4946,20 +5553,20 @@
       </c>
       <c r="H125" s="2">
         <f t="shared" si="3"/>
-        <v>153.01649999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="B126" s="18" t="s">
+        <v>153.0165</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" spans="2:8">
+      <c r="B126" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="C126" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E126" s="18">
+      <c r="D126" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="27">
         <v>170</v>
       </c>
       <c r="F126" s="2">
@@ -4967,20 +5574,20 @@
       </c>
       <c r="H126" s="2">
         <f t="shared" si="3"/>
-        <v>117.68599999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="B127" s="18" t="s">
+        <v>117.686</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" spans="2:8">
+      <c r="B127" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E127" s="18">
+      <c r="D127" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E127" s="27">
         <v>160</v>
       </c>
       <c r="F127" s="2">
@@ -4988,20 +5595,20 @@
       </c>
       <c r="H127" s="2">
         <f t="shared" si="3"/>
-        <v>121.00149999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="B128" s="18" t="s">
+        <v>121.0015</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" spans="2:8">
+      <c r="B128" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C128" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E128" s="18">
+      <c r="D128" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E128" s="27">
         <v>170</v>
       </c>
       <c r="F128" s="2">
@@ -5009,20 +5616,20 @@
       </c>
       <c r="H128" s="2">
         <f t="shared" si="3"/>
-        <v>125.63749999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="18" t="s">
+        <v>125.6375</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" spans="2:8">
+      <c r="B129" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="C129" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E129" s="18">
+      <c r="D129" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E129" s="27">
         <v>185</v>
       </c>
       <c r="F129" s="2">
@@ -5033,17 +5640,17 @@
         <v>132.5915</v>
       </c>
     </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="18" t="s">
+    <row r="130" ht="15.75" spans="2:8">
+      <c r="B130" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C130" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E130" s="18">
+      <c r="D130" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E130" s="27">
         <v>155</v>
       </c>
       <c r="F130" s="2">
@@ -5051,20 +5658,20 @@
       </c>
       <c r="H130" s="2">
         <f t="shared" si="3"/>
-        <v>55.955000000000005</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8">
-      <c r="B131" s="18" t="s">
+        <v>55.955</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" spans="2:8">
+      <c r="B131" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C131" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C131" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E131" s="18">
+      <c r="D131" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E131" s="27">
         <v>155</v>
       </c>
       <c r="F131" s="2">
@@ -5072,20 +5679,20 @@
       </c>
       <c r="H131" s="2">
         <f t="shared" si="3"/>
-        <v>122.21750000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8">
-      <c r="B132" s="18" t="s">
+        <v>122.2175</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" spans="2:8">
+      <c r="B132" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C132" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E132" s="18">
+      <c r="D132" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" s="27">
         <v>185</v>
       </c>
       <c r="F132" s="2">
@@ -5096,17 +5703,17 @@
         <v>132.5915</v>
       </c>
     </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="18" t="s">
+    <row r="133" ht="15.75" spans="2:8">
+      <c r="B133" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C133" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="C133" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E133" s="18">
+      <c r="D133" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E133" s="27">
         <v>185</v>
       </c>
       <c r="F133" s="2">
@@ -5114,20 +5721,20 @@
       </c>
       <c r="H133" s="2">
         <f t="shared" si="3"/>
-        <v>18.620000000000022</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8">
-      <c r="B134" s="18" t="s">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" spans="2:8">
+      <c r="B134" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C134" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="C134" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E134" s="18">
+      <c r="D134" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E134" s="27">
         <v>180</v>
       </c>
       <c r="F134" s="2">
@@ -5135,20 +5742,20 @@
       </c>
       <c r="H134" s="2">
         <f t="shared" si="3"/>
-        <v>115.25399999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8">
-      <c r="B135" s="18" t="s">
+        <v>115.254</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" spans="2:8">
+      <c r="B135" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C135" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="C135" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E135" s="18">
+      <c r="D135" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E135" s="27">
         <v>245</v>
       </c>
       <c r="F135" s="2">
@@ -5159,61 +5766,61 @@
         <v>172.7765</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
-      <c r="B136" s="20" t="s">
+    <row r="136" ht="15.75" spans="2:8">
+      <c r="B136" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="D136" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E136" s="29">
+        <v>185</v>
+      </c>
+      <c r="F136" s="24">
+        <v>346</v>
+      </c>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24">
+        <f t="shared" si="3"/>
+        <v>129.941</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" spans="2:8">
+      <c r="B137" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="D136" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E136" s="20">
-        <v>185</v>
-      </c>
-      <c r="F136" s="15">
-        <v>346</v>
-      </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15">
-        <f t="shared" si="3"/>
-        <v>129.94100000000003</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8">
-      <c r="B137" s="20" t="s">
+      <c r="C137" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C137" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E137" s="20">
+      <c r="D137" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E137" s="29">
         <v>160</v>
       </c>
-      <c r="F137" s="15">
+      <c r="F137" s="24">
         <v>318</v>
       </c>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15">
+      <c r="G137" s="24"/>
+      <c r="H137" s="24">
         <f t="shared" si="3"/>
         <v>128.953</v>
       </c>
     </row>
-    <row r="138" spans="2:8">
-      <c r="B138" s="18" t="s">
+    <row r="138" ht="15.75" spans="2:8">
+      <c r="B138" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C138" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E138" s="18">
+      <c r="D138" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="27">
         <v>220</v>
       </c>
       <c r="F138" s="2">
@@ -5221,20 +5828,20 @@
       </c>
       <c r="H138" s="2">
         <f t="shared" si="3"/>
-        <v>152.35149999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8">
-      <c r="B139" s="18" t="s">
+        <v>152.3515</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" spans="2:8">
+      <c r="B139" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C139" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="C139" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E139" s="18">
+      <c r="D139" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E139" s="27">
         <v>180</v>
       </c>
       <c r="F139" s="2">
@@ -5242,20 +5849,20 @@
       </c>
       <c r="H139" s="2">
         <f t="shared" si="3"/>
-        <v>155.89500000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="18" t="s">
+        <v>155.895</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" spans="2:8">
+      <c r="B140" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="C140" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="C140" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E140" s="18">
+      <c r="D140" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E140" s="27">
         <v>210</v>
       </c>
       <c r="F140" s="2">
@@ -5263,20 +5870,20 @@
       </c>
       <c r="H140" s="2">
         <f t="shared" si="3"/>
-        <v>160.96799999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="18" t="s">
+        <v>160.968</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" spans="2:8">
+      <c r="B141" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C141" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="C141" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E141" s="18">
+      <c r="D141" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E141" s="27">
         <v>170</v>
       </c>
       <c r="F141" s="2">
@@ -5284,7 +5891,7 @@
       </c>
       <c r="H141" s="2">
         <f t="shared" si="3"/>
-        <v>50.540000000000013</v>
+        <v>50.54</v>
       </c>
     </row>
   </sheetData>
@@ -5296,8 +5903,8 @@
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="G44:H45"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>